--- a/Webscrapper/data.xlsx
+++ b/Webscrapper/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="491">
   <si>
     <t>URL</t>
   </si>
@@ -40,943 +40,1453 @@
     <t>About</t>
   </si>
   <si>
-    <t>https://www.patrabharati.com/product-page/saraswati</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/moron-khelar-khelowar</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/ayeshamangal</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/itihas-puran-myth-o-mithya</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/tata-stories</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/sandhikkhan</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/budhodar-teen-rahasya</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/satyajit-katha</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/goutam-buddher-path-dhore</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/february-2024-satabarshe-abol-tabol</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/asesh-samares</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/raja-rammohan-prothom-padatik</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/rokto-mangsher-putul</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/prothom-mudran-bhalobasha</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kaktarua</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/leo-lisa-michel</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/mahadevi</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kishore-bharati-suborno-jayanti-comics-samagra-vol-4</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/khunje-khunje-khun</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/shirshendur-doshe-dosh</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/chirantan-ayurved</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jagumama-rahasya-samagra-volume-5</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/chhani-o-phaco-surgery-ebong-chokher-anyanyo-rog</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/chotoder-rokomari</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/palashir-pore</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/bibhutibhushan-galpo-samagra</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/biswasghataker-sandhane</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/nabboiye-nabin-sanjib</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/pisach-samagra</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/abhinaba-bangla-byakoron</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/sokoli-bimal</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/durga-antare-bahire</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/tobuo-jiban-jwale</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kolikatar-katha</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/hridoyer-shobdo</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/hariye-jaowa-lekha-prafulla</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/hay-prem</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/hyaachho</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/ishwarer-noshto-bhrun</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/iti-maa</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jadukorer-laboratory</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jononi-jane-na-honuman-jane</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jibonto-upobit</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jodi-amaye-bodle-felo</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jongole-jyanto-pathor</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jugantar-golposambhar</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/ja-kichu-aaj-byaktigoto</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jogumama-rahasya-samagra-volume-3</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/jokes-hajari</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/joler-tolaye-atanka</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kabita-club-6-e-sixer</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/karnasubarnar-kori</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/rahasya-romancho-101</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kishore-bharati-suborno-jayanti-comics-samagra-vol-1</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/ke-kokhon-ishwarer-bhumikaye</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/khajuraho-sundari</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/khora-bhoirobir-maath</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/khuni-magic</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kichu-megh-kichu-kuasha</t>
-  </si>
-  <si>
-    <t>https://www.patrabharati.com/product-page/kolkata-kathokata</t>
-  </si>
-  <si>
-    <t>Saraswati</t>
-  </si>
-  <si>
-    <t>Moron Khelar Khelowar</t>
-  </si>
-  <si>
-    <t>Ayeshamangal</t>
-  </si>
-  <si>
-    <t>Itihas Puran : Myth o Mithya</t>
-  </si>
-  <si>
-    <t>Tata Stories</t>
-  </si>
-  <si>
-    <t>Sandhikkhan</t>
-  </si>
-  <si>
-    <t>Budhodar Teen Rahasya</t>
-  </si>
-  <si>
-    <t>Satyajit Katha</t>
-  </si>
-  <si>
-    <t>Goutam Buddher Path Dhore</t>
-  </si>
-  <si>
-    <t>February 2024 : Satabarshe Abol Tabol</t>
-  </si>
-  <si>
-    <t>Asesh Samares</t>
-  </si>
-  <si>
-    <t>Raja Rammohan : Prothom Padatik</t>
-  </si>
-  <si>
-    <t>Rokto Mangsher Putul</t>
-  </si>
-  <si>
-    <t>Prothom Mudran, Bhalobasha</t>
-  </si>
-  <si>
-    <t>Kaktarua</t>
-  </si>
-  <si>
-    <t>Leo-Lisa-Michel</t>
-  </si>
-  <si>
-    <t>Mahadevi</t>
-  </si>
-  <si>
-    <t>Kishore Bharati Suborno Jayanti Comics Samagra (Vol.4)</t>
-  </si>
-  <si>
-    <t>Khunje Khunje Khun</t>
-  </si>
-  <si>
-    <t>Shirshendur Doshe Dosh</t>
-  </si>
-  <si>
-    <t>Chirantan Ayurved</t>
-  </si>
-  <si>
-    <t>Jagumama Rahasya Samagra : Volume 5</t>
-  </si>
-  <si>
-    <t>Chhani o Phaco Surgery Ebong Chokher Anyanyo Rog</t>
-  </si>
-  <si>
-    <t>Chotoder Rokomari</t>
-  </si>
-  <si>
-    <t>Palashir Pore</t>
-  </si>
-  <si>
-    <t>Bibhutibhushan Galpo Samagra</t>
-  </si>
-  <si>
-    <t>Biswasghataker Sandhane</t>
-  </si>
-  <si>
-    <t>Nabboiye Nabin Sanjib</t>
-  </si>
-  <si>
-    <t>Pisach Samagra</t>
-  </si>
-  <si>
-    <t>Abhinaba Bangla Byakoron</t>
-  </si>
-  <si>
-    <t>Sokoli Bimal</t>
-  </si>
-  <si>
-    <t>Durga : Antare | Bahire</t>
-  </si>
-  <si>
-    <t>Tobuo Jiban Jwale</t>
-  </si>
-  <si>
-    <t>Kolikatar Katha</t>
-  </si>
-  <si>
-    <t>HRIDOYER SHOBDO</t>
-  </si>
-  <si>
-    <t>Hariye Jaowa Lekha- PRAFULLA</t>
-  </si>
-  <si>
-    <t>Hay Prem</t>
-  </si>
-  <si>
-    <t>Hyaachho</t>
-  </si>
-  <si>
-    <t>ISHWARER NOSHTO BHRUN</t>
-  </si>
-  <si>
-    <t>ITI MAA</t>
-  </si>
-  <si>
-    <t>Jadukorer Laboratory</t>
-  </si>
-  <si>
-    <t>Jononi Jane Na,Honuman Jane</t>
-  </si>
-  <si>
-    <t>JIBONTO UPOBIT</t>
-  </si>
-  <si>
-    <t>JODI AMAYE BODLE FELO</t>
-  </si>
-  <si>
-    <t>JONGOLE JYANTO PATHOR</t>
-  </si>
-  <si>
-    <t>JUGANTAR GOLPOSAMBHAR</t>
-  </si>
-  <si>
-    <t>Ja Kichu Aaj Byaktigoto</t>
-  </si>
-  <si>
-    <t>JOGUMAMA RAHASYA SAMAGRA VOLUME 3</t>
-  </si>
-  <si>
-    <t>Jokes Hajari</t>
-  </si>
-  <si>
-    <t>Joler Tolaye Atanka</t>
-  </si>
-  <si>
-    <t>KABITA CLUB - 6-e SIXER</t>
-  </si>
-  <si>
-    <t>KARNASUBARNAR KORI</t>
-  </si>
-  <si>
-    <t>RAHASYA ROMANCHO 101</t>
-  </si>
-  <si>
-    <t>Kishore Bharati Suborno Jayanti Comics Samagra (Vol.1)</t>
-  </si>
-  <si>
-    <t>KE KOKHON ISHWARER BHUMIKAYE</t>
-  </si>
-  <si>
-    <t>KHAJURAHO SUNDARI</t>
-  </si>
-  <si>
-    <t>Khora Bhoirobir Maath</t>
-  </si>
-  <si>
-    <t>KHUNI MAGIC</t>
-  </si>
-  <si>
-    <t>Kichu Megh Kichu Kuasha</t>
-  </si>
-  <si>
-    <t>Kolkata Kathokata</t>
+    <t>https://www.patrabharati.com/product-page/balmikir-ramayane-nei</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/goenda-a-c-g-samagra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/chandrakala-o-chandan-purush</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/rahasya-romancho-goenda-patrikar</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/hariye-jaowa-samares</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/hariye-jaowa-sanjib</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/hariye-jaowa-sunil</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/agunbela</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/global-warming</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/goodbye-diabetes</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-rahasya-upanyas-anish</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-rahasya-upanyas-siraj</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-rahasya-upanyas-adrish</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-upanyas-nabaneeta</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-upanyas-shirshendu</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-moner-moto-sarat</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhraman-samagra-sirsendu</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhraman-samagra-sanjib</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhoutik-aloukik-tridib</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhoutik-aloukik-abhijnan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kishore-samagra-suchitra-2</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kishore-samagra-suchitra-1</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/jhuri-kuri-golpo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kishore-bhoutik-samagra-1-hemendra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kishore-bhoutik-samagra-2-hemendra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kishore-bhoutik-samagra-3-hemendra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/pratapganjer-narakhadak</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/jantab</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/udita</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ekti-sobuj-golaper-jonye</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/anubhaber-ekante</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kaler-joydonka-bajey</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/rokto-fonta-fonta</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/harshabardhan-aaro-ekdojon</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/harshabardhan-ekdojon</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/harshabardhan-chorer-pallaye-chokorborty</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/pagla-dasu</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/tuntunir-boi</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/chaitanyadeb</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhootnather-diary-sampurno</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/balmiki-ramayan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/mahabharat</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/parameshwari-sita</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/footpather-dokan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhoutik-aloukik-anish</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bharatiya-sangeet-prokorso</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/fire-aschi-birotir-por</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kb-comics-samagra-2</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/lobh-pap-bhalobasha</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/rahasyer-dharapat</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/taliban-afghan-o-ami</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/dakat-raja</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/futidangay-fatafati</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sadhu-ojha-asche</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ek-jibon-unnayon</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/probaser-kathokata</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/swayanprabha-saatpurush</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sera-science-fiction-samagra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/chotoder-joto-hashir-golpo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/dushprapyo-thriller-omnibus-volume-2</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhoutik-golpo-samagra-bibhuti</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/noroker-sesh-jatrira</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/anilikha-rahasya-samagra-1</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/golpo-samagra-samares-volume-1</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ami-o-amar-tarun-lekhok-bondhura</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ginni-jokhon-baper-bari</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sansare-theke-siddhilabh</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/badami-sabuj-akshargulo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/runu-samagra</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ami-serial-killer-bolchi</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sada-biral</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/mrinmoyee</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/daak-ele-jetei-hoy</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sara-jagano-sera-golpo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/satabarsher-sera-rahasya-upanyas-1</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/satabarsher-sera-volume-2</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/juddho-aparadhi</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ruppure-dobol-golmal</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sharadindur-rahasyabhed</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/satabarsher-sera-rahasya-upanyas-3</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/palasher-ayu</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/shoitaner-sontan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ramkrishner-fouj</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/goenda-poolish-todonto-bish</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/upanyas-samagra-3</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/amar-nam-pakistan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/notun-bish-rahasya</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/falta-theke-palashi</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/aro-limerick</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/megheder-din</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/greekder-chokhe-bharatbarsha</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/ishwarpurer-premkatha</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/notun-nachiketa-omnibus</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/panchti-moner-moto-upanyas-prafulla</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/andhar-britto</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/gupto-brindabone</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sreshtho-jibanananda</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/rabi-thakurer-daktari</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/rup-marich-rahasya</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/nobeljoyir-sera-18</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/a-grammar-of-the-bengali-language</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/porochorcha-poroninda</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/asani-sanket-sampurno</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/byangodarshane-satyajit</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/meursault-biruddho-sakhyo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bhoyer-upotyoka</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/imankalyan</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/vasco-da-gamar-bharat</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/inner-engineering</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sera-kalpabigyan-omnibus</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kalo-danor-atonko</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/pet-bhalo-toh-sob-bhalo</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/sera-goenda-upanyas</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/noti-science-fiction</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/harano-surjer-khonje</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/vande-mataram-rup-rupantar</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/kacher-manush-subrata</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/bohe-nirontor-ananta-anandadhara</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/nil-ghurni</t>
+  </si>
+  <si>
+    <t>https://www.patrabharati.com/product-page/fire-ashe-barbar</t>
+  </si>
+  <si>
+    <t>BALMIKIR RAMAYANE NEI</t>
+  </si>
+  <si>
+    <t>Goenda A.C.G Samagra</t>
+  </si>
+  <si>
+    <t>CHANDRAKALA O CHANDAN PURUSH</t>
+  </si>
+  <si>
+    <t>RAHASYA ROMANCHO GOENDA PATRIKAR</t>
+  </si>
+  <si>
+    <t>HARIYE JAOWA -SAMARES</t>
+  </si>
+  <si>
+    <t>HARIYE JAOWA - SANJIB</t>
+  </si>
+  <si>
+    <t>HARIYE JAOWA - SUNIL</t>
+  </si>
+  <si>
+    <t>AGUNBELA</t>
+  </si>
+  <si>
+    <t>GLOBAL WARMING</t>
+  </si>
+  <si>
+    <t>Goodbye Diabetes</t>
+  </si>
+  <si>
+    <t>Panchti Rahasya Upanyas - Anish</t>
+  </si>
+  <si>
+    <t>Panchti Rahasya Upanyas - Siraj</t>
+  </si>
+  <si>
+    <t>Panchti Rahasya Upanyas - Adrish</t>
+  </si>
+  <si>
+    <t>PANCHTI UPANYAS -- NABANEETA</t>
+  </si>
+  <si>
+    <t>Panchti Upanyas - Shirshendu</t>
+  </si>
+  <si>
+    <t>Title not found</t>
+  </si>
+  <si>
+    <t>BHRAMAN SAMAGRA - SIRSENDU</t>
+  </si>
+  <si>
+    <t>BHRAMAN SAMAGRA - SANJIB</t>
+  </si>
+  <si>
+    <t>BHOUTIK ALOUKIK - TRIDIB</t>
+  </si>
+  <si>
+    <t>BHOUTIK ALOUKIK - ABHIJNAN</t>
+  </si>
+  <si>
+    <t>Kishore Samagra Suchitra - 2</t>
+  </si>
+  <si>
+    <t>Kishore Samagra Suchitra -1</t>
+  </si>
+  <si>
+    <t>JHURI KURI GOLPO</t>
+  </si>
+  <si>
+    <t>Kishore Bhoutik Samagra - 1 Hemendra</t>
+  </si>
+  <si>
+    <t>Kishore Bhoutik Samagra - 2 Hemendra</t>
+  </si>
+  <si>
+    <t>Kishore Bhoutik Samagra - 3 Hemendra</t>
+  </si>
+  <si>
+    <t>PRATAPGANJER NARAKHADAK</t>
+  </si>
+  <si>
+    <t>JANTAB</t>
+  </si>
+  <si>
+    <t>UDITA</t>
+  </si>
+  <si>
+    <t>EKTI SOBUJ GOLAPER JONYE</t>
+  </si>
+  <si>
+    <t>ANUBHABER EKANTE</t>
+  </si>
+  <si>
+    <t>KALER JOYDONKA BAJEY</t>
+  </si>
+  <si>
+    <t>ROKTO FONTA FONTA</t>
+  </si>
+  <si>
+    <t>Harshabardhan Aaro Ekdojon</t>
+  </si>
+  <si>
+    <t>Harshabardhan Ekdojon</t>
+  </si>
+  <si>
+    <t>Harshabardhan Chorer Pallaye Chokorborty</t>
+  </si>
+  <si>
+    <t>Pagla Dasu</t>
+  </si>
+  <si>
+    <t>TUNTUNIR BOI</t>
+  </si>
+  <si>
+    <t>Chaitanyadeb</t>
+  </si>
+  <si>
+    <t>Bhootnather Diary Sampurno</t>
+  </si>
+  <si>
+    <t>Balmiki Ramayan</t>
+  </si>
+  <si>
+    <t>Mahabharat</t>
+  </si>
+  <si>
+    <t>PARAMESHWARI SITA</t>
+  </si>
+  <si>
+    <t>FOOTPATHER DOKAN</t>
+  </si>
+  <si>
+    <t>BHOUTIK ALOUKIK- ANISH</t>
+  </si>
+  <si>
+    <t>BHARATIYA SANGEET PROKORSO</t>
+  </si>
+  <si>
+    <t>FIRE ASCHI BIROTIR POR</t>
+  </si>
+  <si>
+    <t>Kishore Bharati Comics Samagra 2</t>
+  </si>
+  <si>
+    <t>LOBH PAP BHALOBASHA</t>
+  </si>
+  <si>
+    <t>RAHASYER DHARAPAT</t>
+  </si>
+  <si>
+    <t>TALIBAN AFGHAN O AMI</t>
+  </si>
+  <si>
+    <t>DAKAT RAJA</t>
+  </si>
+  <si>
+    <t>FUTIDANGAY FATAFATI</t>
+  </si>
+  <si>
+    <t>SADHU OJHA ASCHE</t>
+  </si>
+  <si>
+    <t>EK JIBON UNNAYON</t>
+  </si>
+  <si>
+    <t>PROBASER KATHOKATA</t>
+  </si>
+  <si>
+    <t>SWAYANPRABHA SAATPURUSH</t>
+  </si>
+  <si>
+    <t>SERA SCIENCE FICTION SAMAGRA</t>
+  </si>
+  <si>
+    <t>CHOTODER JOTO HASHIR GOLPO</t>
+  </si>
+  <si>
+    <t>Dushprapyo Thriller Omnibus Volume 2</t>
+  </si>
+  <si>
+    <t>Bhoutik Golpo Samagra- Bibhuti</t>
+  </si>
+  <si>
+    <t>Noroker Sesh Jatrira</t>
+  </si>
+  <si>
+    <t>ANILIKHA RAHASYA SAMAGRA : 1</t>
+  </si>
+  <si>
+    <t>Golpo Samagra Samares : Volume 1</t>
+  </si>
+  <si>
+    <t>Ami o Amar Tarun Lekhok Bondhura</t>
+  </si>
+  <si>
+    <t>Ginni Jokhon Baper Bari</t>
+  </si>
+  <si>
+    <t>Sansare Theke Siddhilabh</t>
+  </si>
+  <si>
+    <t>Badami Sabuj Akshargulo</t>
+  </si>
+  <si>
+    <t>Runu Samagra</t>
+  </si>
+  <si>
+    <t>Ami Serial Killer Bolchi</t>
+  </si>
+  <si>
+    <t>Sada Biral</t>
+  </si>
+  <si>
+    <t>Mrinmoyee</t>
+  </si>
+  <si>
+    <t>Daak Ele Jetei Hoy</t>
+  </si>
+  <si>
+    <t>Sara Jagano Sera Golpo</t>
+  </si>
+  <si>
+    <t>Satabarsher Sera Rahasya Upanyas 1</t>
+  </si>
+  <si>
+    <t>Satabarsher Sera : Volume 2</t>
+  </si>
+  <si>
+    <t>Juddho Aparadhi</t>
+  </si>
+  <si>
+    <t>Ruppure Dobol Golmal</t>
+  </si>
+  <si>
+    <t>Sharadindur Rahasyabhed</t>
+  </si>
+  <si>
+    <t>Satabarsher Sera Rahasya Upanyas 3</t>
+  </si>
+  <si>
+    <t>Palasher Ayu</t>
+  </si>
+  <si>
+    <t>Shoitaner Sontan</t>
+  </si>
+  <si>
+    <t>Ramkrishner Fouj</t>
+  </si>
+  <si>
+    <t>Goenda Poolish Todonto Bish</t>
+  </si>
+  <si>
+    <t>Upanyas Samagra 3</t>
+  </si>
+  <si>
+    <t>Amar Nam Pakistan</t>
+  </si>
+  <si>
+    <t>Notun Bish Rahasya</t>
+  </si>
+  <si>
+    <t>Falta Theke Palashi</t>
+  </si>
+  <si>
+    <t>Aro Limerick</t>
+  </si>
+  <si>
+    <t>Megheder Din</t>
+  </si>
+  <si>
+    <t>Greekder Chokhe Bharatbarsha</t>
+  </si>
+  <si>
+    <t>Ishwarpurer Premkatha</t>
+  </si>
+  <si>
+    <t>Notun Nachiketa Omnibus</t>
+  </si>
+  <si>
+    <t>Panchti Moner Moto Upanyas- Prafulla</t>
+  </si>
+  <si>
+    <t>Andhar Britto</t>
+  </si>
+  <si>
+    <t>Gupto Brindabone</t>
+  </si>
+  <si>
+    <t>Rabi Thakurer Daktari</t>
+  </si>
+  <si>
+    <t>Rup Marich Rahasya</t>
+  </si>
+  <si>
+    <t>Nobeljoyir Sera 18</t>
+  </si>
+  <si>
+    <t>A Grammar of the Bengali Language</t>
+  </si>
+  <si>
+    <t>Porochorcha Poroninda</t>
+  </si>
+  <si>
+    <t>Asani Sanket Sampurno</t>
+  </si>
+  <si>
+    <t>Byangodarshane Satyajit</t>
+  </si>
+  <si>
+    <t>Meursault Biruddho Sakhyo</t>
+  </si>
+  <si>
+    <t>Bhoyer Upotyoka</t>
+  </si>
+  <si>
+    <t>Imankalyan</t>
+  </si>
+  <si>
+    <t>Vasco Da Gamar Bharat</t>
+  </si>
+  <si>
+    <t>Inner Engineering</t>
+  </si>
+  <si>
+    <t>Sera Kalpabigyan Omnibus</t>
+  </si>
+  <si>
+    <t>Kalo Danor Atonko</t>
+  </si>
+  <si>
+    <t>Pet Bhalo Toh Sob Bhalo</t>
+  </si>
+  <si>
+    <t>Sera Goenda Upanyas</t>
+  </si>
+  <si>
+    <t>Noti Science Fiction</t>
+  </si>
+  <si>
+    <t>Harano Surjer Khonje</t>
+  </si>
+  <si>
+    <t>Vande Mataram : Rup Rupantar</t>
+  </si>
+  <si>
+    <t>Kacher Manush Subrata</t>
+  </si>
+  <si>
+    <t>Bohe Nirontor Ananta Anandadhara</t>
+  </si>
+  <si>
+    <t>Nil Ghurni</t>
+  </si>
+  <si>
+    <t>Fire Ashe Barbar</t>
+  </si>
+  <si>
+    <t>₹295.00</t>
+  </si>
+  <si>
+    <t>₹650.00</t>
   </si>
   <si>
     <t>₹325.00</t>
   </si>
   <si>
+    <t>₹799.00</t>
+  </si>
+  <si>
+    <t>₹490.00</t>
+  </si>
+  <si>
+    <t>₹699.00</t>
+  </si>
+  <si>
+    <t>₹749.00</t>
+  </si>
+  <si>
+    <t>₹399.00</t>
+  </si>
+  <si>
+    <t>₹100.00</t>
+  </si>
+  <si>
+    <t>₹175.00</t>
+  </si>
+  <si>
+    <t>₹450.00</t>
+  </si>
+  <si>
+    <t>₹350.00</t>
+  </si>
+  <si>
+    <t>Price not found</t>
+  </si>
+  <si>
+    <t>₹550.00</t>
+  </si>
+  <si>
+    <t>₹269.00</t>
+  </si>
+  <si>
+    <t>₹299.00</t>
+  </si>
+  <si>
+    <t>₹349.00</t>
+  </si>
+  <si>
+    <t>₹225.00</t>
+  </si>
+  <si>
+    <t>₹199.00</t>
+  </si>
+  <si>
+    <t>₹125.00</t>
+  </si>
+  <si>
+    <t>₹149.00</t>
+  </si>
+  <si>
+    <t>₹120.00</t>
+  </si>
+  <si>
+    <t>₹150.00</t>
+  </si>
+  <si>
+    <t>₹160.00</t>
+  </si>
+  <si>
+    <t>₹375.00</t>
+  </si>
+  <si>
+    <t>₹499.00</t>
+  </si>
+  <si>
+    <t>₹170.00</t>
+  </si>
+  <si>
+    <t>₹275.00</t>
+  </si>
+  <si>
+    <t>₹249.00</t>
+  </si>
+  <si>
+    <t>₹250.00</t>
+  </si>
+  <si>
+    <t>₹260.00</t>
+  </si>
+  <si>
+    <t>₹180.00</t>
+  </si>
+  <si>
+    <t>₹599.00</t>
+  </si>
+  <si>
+    <t>₹340.00</t>
+  </si>
+  <si>
+    <t>₹549.00</t>
+  </si>
+  <si>
+    <t>₹575.00</t>
+  </si>
+  <si>
+    <t>₹899.00</t>
+  </si>
+  <si>
+    <t>₹475.00</t>
+  </si>
+  <si>
+    <t>₹300.00</t>
+  </si>
+  <si>
     <t>₹200.00</t>
   </si>
   <si>
-    <t>₹250.00</t>
-  </si>
-  <si>
-    <t>₹260.00</t>
-  </si>
-  <si>
-    <t>₹400.00</t>
-  </si>
-  <si>
-    <t>₹350.00</t>
-  </si>
-  <si>
-    <t>₹295.00</t>
+    <t>₹525.00</t>
+  </si>
+  <si>
+    <t>₹425.00</t>
+  </si>
+  <si>
+    <t>₹265.50</t>
+  </si>
+  <si>
+    <t>₹585.00</t>
+  </si>
+  <si>
+    <t>₹292.50</t>
+  </si>
+  <si>
+    <t>₹719.10</t>
+  </si>
+  <si>
+    <t>₹441.00</t>
+  </si>
+  <si>
+    <t>₹629.10</t>
+  </si>
+  <si>
+    <t>₹674.10</t>
+  </si>
+  <si>
+    <t>₹359.10</t>
+  </si>
+  <si>
+    <t>₹90.00</t>
+  </si>
+  <si>
+    <t>₹157.50</t>
+  </si>
+  <si>
+    <t>₹405.00</t>
+  </si>
+  <si>
+    <t>₹315.00</t>
   </si>
   <si>
     <t>₹495.00</t>
   </si>
   <si>
-    <t>₹395.00</t>
-  </si>
-  <si>
-    <t>₹27.00</t>
-  </si>
-  <si>
-    <t>₹450.00</t>
-  </si>
-  <si>
-    <t>₹300.00</t>
-  </si>
-  <si>
-    <t>₹595.00</t>
-  </si>
-  <si>
-    <t>₹275.00</t>
-  </si>
-  <si>
-    <t>₹399.00</t>
-  </si>
-  <si>
-    <t>₹425.00</t>
-  </si>
-  <si>
-    <t>₹299.00</t>
-  </si>
-  <si>
-    <t>₹799.00</t>
-  </si>
-  <si>
-    <t>₹525.00</t>
-  </si>
-  <si>
-    <t>₹1,200.00</t>
-  </si>
-  <si>
-    <t>₹500.00</t>
-  </si>
-  <si>
-    <t>Price not found</t>
-  </si>
-  <si>
-    <t>₹549.00</t>
-  </si>
-  <si>
-    <t>₹180.00</t>
-  </si>
-  <si>
-    <t>₹179.00</t>
-  </si>
-  <si>
-    <t>₹150.00</t>
-  </si>
-  <si>
-    <t>₹750.00</t>
-  </si>
-  <si>
-    <t>₹100.00</t>
-  </si>
-  <si>
-    <t>₹249.00</t>
-  </si>
-  <si>
-    <t>₹160.00</t>
-  </si>
-  <si>
-    <t>₹292.50</t>
-  </si>
-  <si>
-    <t>₹225.00</t>
+    <t>₹242.10</t>
+  </si>
+  <si>
+    <t>₹269.10</t>
+  </si>
+  <si>
+    <t>₹314.10</t>
+  </si>
+  <si>
+    <t>₹202.50</t>
+  </si>
+  <si>
+    <t>₹179.10</t>
+  </si>
+  <si>
+    <t>₹112.50</t>
+  </si>
+  <si>
+    <t>₹134.10</t>
+  </si>
+  <si>
+    <t>₹108.00</t>
+  </si>
+  <si>
+    <t>₹135.00</t>
+  </si>
+  <si>
+    <t>₹144.00</t>
+  </si>
+  <si>
+    <t>₹337.50</t>
+  </si>
+  <si>
+    <t>₹449.10</t>
+  </si>
+  <si>
+    <t>₹153.00</t>
+  </si>
+  <si>
+    <t>₹247.50</t>
+  </si>
+  <si>
+    <t>₹224.10</t>
   </si>
   <si>
     <t>₹234.00</t>
   </si>
   <si>
-    <t>₹360.00</t>
-  </si>
-  <si>
-    <t>₹315.00</t>
-  </si>
-  <si>
-    <t>₹265.50</t>
-  </si>
-  <si>
-    <t>₹445.50</t>
-  </si>
-  <si>
-    <t>₹355.50</t>
-  </si>
-  <si>
-    <t>₹24.30</t>
-  </si>
-  <si>
-    <t>₹405.00</t>
+    <t>₹162.00</t>
+  </si>
+  <si>
+    <t>₹539.10</t>
+  </si>
+  <si>
+    <t>₹306.00</t>
+  </si>
+  <si>
+    <t>₹494.10</t>
+  </si>
+  <si>
+    <t>₹517.50</t>
+  </si>
+  <si>
+    <t>₹809.10</t>
+  </si>
+  <si>
+    <t>₹427.50</t>
   </si>
   <si>
     <t>₹270.00</t>
   </si>
   <si>
-    <t>₹535.50</t>
-  </si>
-  <si>
-    <t>₹247.50</t>
-  </si>
-  <si>
-    <t>₹359.10</t>
+    <t>₹472.50</t>
   </si>
   <si>
     <t>₹382.50</t>
   </si>
   <si>
-    <t>₹269.10</t>
-  </si>
-  <si>
-    <t>₹719.10</t>
-  </si>
-  <si>
-    <t>₹472.50</t>
-  </si>
-  <si>
-    <t>₹1,080.00</t>
-  </si>
-  <si>
-    <t>₹494.10</t>
-  </si>
-  <si>
-    <t>₹162.00</t>
-  </si>
-  <si>
-    <t>₹161.10</t>
-  </si>
-  <si>
-    <t>₹135.00</t>
-  </si>
-  <si>
-    <t>₹675.00</t>
-  </si>
-  <si>
-    <t>₹90.00</t>
-  </si>
-  <si>
-    <t>₹224.10</t>
-  </si>
-  <si>
-    <t>₹144.00</t>
-  </si>
-  <si>
-    <t>9789393171085</t>
-  </si>
-  <si>
-    <t>9789395635417</t>
-  </si>
-  <si>
-    <t>9789395635479</t>
-  </si>
-  <si>
-    <t>9789395635561</t>
-  </si>
-  <si>
-    <t>9789395635837</t>
-  </si>
-  <si>
-    <t>9789395635813</t>
-  </si>
-  <si>
-    <t>9789395635776</t>
-  </si>
-  <si>
-    <t>9789395635554</t>
-  </si>
-  <si>
-    <t>9789395635585</t>
+    <t>9788183746489</t>
+  </si>
+  <si>
+    <t>9788183746458</t>
+  </si>
+  <si>
+    <t>9788183746434</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>9789394913882</t>
-  </si>
-  <si>
-    <t>9789395635707</t>
-  </si>
-  <si>
-    <t>9789395635738</t>
-  </si>
-  <si>
-    <t>9789395635455</t>
-  </si>
-  <si>
-    <t>9789395635974</t>
-  </si>
-  <si>
-    <t>9789395635844</t>
-  </si>
-  <si>
-    <t>9789395635509</t>
-  </si>
-  <si>
-    <t>9789395635790</t>
-  </si>
-  <si>
-    <t>9789395635356</t>
-  </si>
-  <si>
-    <t>9789394913745</t>
-  </si>
-  <si>
-    <t>9789395635622</t>
-  </si>
-  <si>
-    <t>9789395635332</t>
-  </si>
-  <si>
-    <t>9789395635806</t>
-  </si>
-  <si>
-    <t>9789394913868</t>
-  </si>
-  <si>
-    <t>9789395635646</t>
-  </si>
-  <si>
-    <t>9789395635653</t>
-  </si>
-  <si>
-    <t>9789395635660</t>
-  </si>
-  <si>
-    <t>9789393171139</t>
-  </si>
-  <si>
-    <t>9789394913608</t>
-  </si>
-  <si>
-    <t>9789395635318</t>
-  </si>
-  <si>
-    <t>9789395635349</t>
-  </si>
-  <si>
-    <t>9789395635295</t>
-  </si>
-  <si>
-    <t>9789395635264</t>
-  </si>
-  <si>
-    <t>9789395635219</t>
-  </si>
-  <si>
-    <t>9788183746090</t>
-  </si>
-  <si>
-    <t>9788183743877</t>
-  </si>
-  <si>
-    <t>9788183743921</t>
-  </si>
-  <si>
-    <t>9788183744942</t>
-  </si>
-  <si>
-    <t>9788183745147</t>
-  </si>
-  <si>
-    <t>9788183744973</t>
-  </si>
-  <si>
-    <t>9788183744508</t>
-  </si>
-  <si>
-    <t>9788183744911</t>
-  </si>
-  <si>
-    <t>9788183745895</t>
-  </si>
-  <si>
-    <t>9788183744706</t>
-  </si>
-  <si>
-    <t>9788183745529</t>
-  </si>
-  <si>
-    <t>9788183742146</t>
-  </si>
-  <si>
-    <t>9788183743853</t>
-  </si>
-  <si>
-    <t>9788183746045</t>
-  </si>
-  <si>
-    <t>9788183746113</t>
-  </si>
-  <si>
-    <t>9788183746052</t>
-  </si>
-  <si>
-    <t>9788183745840</t>
-  </si>
-  <si>
-    <t>9788183745390</t>
-  </si>
-  <si>
-    <t>9788183743884</t>
-  </si>
-  <si>
-    <t>9788183743891</t>
-  </si>
-  <si>
-    <t>202</t>
+    <t>9788183746298</t>
+  </si>
+  <si>
+    <t>9788183740494</t>
+  </si>
+  <si>
+    <t>9788183746526</t>
+  </si>
+  <si>
+    <t>9788183741811</t>
+  </si>
+  <si>
+    <t>9788183744140</t>
+  </si>
+  <si>
+    <t>9788183740937</t>
+  </si>
+  <si>
+    <t>9788183746472</t>
+  </si>
+  <si>
+    <t>9788183746465</t>
+  </si>
+  <si>
+    <t>9788183743662</t>
+  </si>
+  <si>
+    <t>9788183742535</t>
+  </si>
+  <si>
+    <t>9788183744119</t>
+  </si>
+  <si>
+    <t>9788183743914</t>
+  </si>
+  <si>
+    <t>9788183744577</t>
+  </si>
+  <si>
+    <t>9788183741200</t>
+  </si>
+  <si>
+    <t>9788183744393</t>
+  </si>
+  <si>
+    <t>9788183746564</t>
+  </si>
+  <si>
+    <t>9788183746571</t>
+  </si>
+  <si>
+    <t>978819029512</t>
+  </si>
+  <si>
+    <t>9788183746618</t>
+  </si>
+  <si>
+    <t>9788183744201</t>
+  </si>
+  <si>
+    <t>9788183741590</t>
+  </si>
+  <si>
+    <t>9788183746656</t>
+  </si>
+  <si>
+    <t>9788183746595</t>
+  </si>
+  <si>
+    <t>9788183742559</t>
+  </si>
+  <si>
+    <t>9788183746687</t>
+  </si>
+  <si>
+    <t>9788183746601</t>
+  </si>
+  <si>
+    <t>9788183746663</t>
+  </si>
+  <si>
+    <t>9788183746694</t>
+  </si>
+  <si>
+    <t>9788183746533</t>
+  </si>
+  <si>
+    <t>9788183746625</t>
+  </si>
+  <si>
+    <t>9788183740791</t>
+  </si>
+  <si>
+    <t>9788183741385</t>
+  </si>
+  <si>
+    <t>9788183746700</t>
+  </si>
+  <si>
+    <t>9789393171023</t>
+  </si>
+  <si>
+    <t>9788183746632</t>
+  </si>
+  <si>
+    <t>9788194126140</t>
+  </si>
+  <si>
+    <t>9788183746793</t>
+  </si>
+  <si>
+    <t>9788183746762</t>
+  </si>
+  <si>
+    <t>9788183746816</t>
+  </si>
+  <si>
+    <t>9788183746830</t>
+  </si>
+  <si>
+    <t>9788183746809</t>
+  </si>
+  <si>
+    <t>9788183741996</t>
+  </si>
+  <si>
+    <t>9788183746861</t>
+  </si>
+  <si>
+    <t>9788183746649</t>
+  </si>
+  <si>
+    <t>9788183746878</t>
+  </si>
+  <si>
+    <t>9788183746823</t>
+  </si>
+  <si>
+    <t>9788183746786</t>
+  </si>
+  <si>
+    <t>9789393171030</t>
+  </si>
+  <si>
+    <t>9788183746724</t>
+  </si>
+  <si>
+    <t>9788183746854</t>
+  </si>
+  <si>
+    <t>9788183746748</t>
+  </si>
+  <si>
+    <t>9788183746885</t>
+  </si>
+  <si>
+    <t>9788183746915</t>
+  </si>
+  <si>
+    <t>9788183746939</t>
+  </si>
+  <si>
+    <t>9788183746892</t>
+  </si>
+  <si>
+    <t>9788183746908</t>
+  </si>
+  <si>
+    <t>9788183740739</t>
+  </si>
+  <si>
+    <t>9788183746922</t>
+  </si>
+  <si>
+    <t>9788183741047</t>
+  </si>
+  <si>
+    <t>9788183745116</t>
+  </si>
+  <si>
+    <t>9788183743211</t>
+  </si>
+  <si>
+    <t>9788183742702</t>
+  </si>
+  <si>
+    <t>9788183746991</t>
+  </si>
+  <si>
+    <t>9788183746984</t>
+  </si>
+  <si>
+    <t>9788183746960</t>
+  </si>
+  <si>
+    <t>9788183746540</t>
+  </si>
+  <si>
+    <t>9789394913042</t>
+  </si>
+  <si>
+    <t>9789394913004</t>
+  </si>
+  <si>
+    <t>9788183741231</t>
+  </si>
+  <si>
+    <t>9788194126157</t>
+  </si>
+  <si>
+    <t>9789394913028</t>
+  </si>
+  <si>
+    <t>9789393171177</t>
+  </si>
+  <si>
+    <t>9788183743945</t>
+  </si>
+  <si>
+    <t>9789394913103</t>
+  </si>
+  <si>
+    <t>9789393171122</t>
+  </si>
+  <si>
+    <t>9788183743563</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
     <t>143</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>231</t>
+    <t>224</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>175</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>1596</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Hard Cover with Jacket</t>
-  </si>
-  <si>
-    <t>Paperback</t>
-  </si>
-  <si>
-    <t>এই বই দেবী সরস্বতীর কল্পনার উদ্ভব ও বিকাশ এবং শিল্পে, ধার্মিক অনুষ্ঠানে ও সামাজিক জীবনের প্রয়োজনে বাংলা ভাষায় রচিত সর্বপ্রথম গবেষণালব্ধ আখর। বৈদিক যুগে সরস্বতী নদীর তীর যখন আর্যগণের নিবাস ছিল তখন কীভাবে নদীরূপা দেবী সরস্বতীর উদ্ভব হল, কীভাবে বাগদেবীর সঙ্গে অভিন্ন হয়ে গেলেন, বেদ-সংহিতায় সরস্বতীর কল্পনাই বা কীরূপ ছিল প্রভৃতি নানা বিষয়ের অবতারণা হয়েছে এই গ্রন্থে। প্রসঙ্গক্রমে উঠে এসেছে পৌরাণিক তান্ত্রিক, মহাযান বৌদ্ধ, জৈন দেবতত্ত্বের ও দেবার্চনার নানা কথা। এমনই সব নানা গূঢ় তথ্যে ভরা ’সরস্বতী’ পাঠককে এক অজানার হদিশ দেবে।</t>
-  </si>
-  <si>
-    <t>ময়ূখ চৌধুরীর কলমে ৮টি রোমহর্ষক শিকার-কাহিনি—মরণ খেলার খেলোয়াড়বানরসেনার বন্দিআফ্রিকার মহিষাসুরকুম্ভকর্ণের ক্ষুধাঅভিশপ্ত আহোয়ামার্জারের অপমৃত্যুএকটি নায়কের কাহিনিগ্ল্যাডিয়েটরের মৃত্যু নেইপ্রতিটি লেখাই সত্যি ঘটনা অবলম্বনে এবং সর্বজনপাঠ্য।</t>
-  </si>
-  <si>
-    <t>ঢাকা ১৯৭৭। ২ অক্টোবর ঘটে গেল রহস্যময় সামরিক অভ্যুত্থান। ওই রাতে বিমানবাহিনীর সদস্য জয়নাল ঘুমিয়ে ছিল স্ত্রী আয়েশার পাশে। পরদিন সকালে কাজে গেল জয়নাল, কিন্তু ফিরে এল না রোজকার মতো। শুরু হল এক বাঙালি নারীর উজান জলে যাত্রা! স্বামীর অন্বেষণ। দু’দুটো দুগ্ধপোষ্য সন্তান নিয়ে আয়েশা কোথায় যাবে? ২০ বছর কীভাবে কেটেছে তার? আজ এত বছর পর খবরের কাগজে ছাপা হচ্ছে সেই সব দিনের কাহিনী, শত শত বিমান সেনাকে ফাঁসিতে ঝোলানোর বিবরণ। তবে কি কোনও খবর পাওয়া যাবে নিখোঁজ স্বামীর? আয়েশা আবার ফিরে এসেছে ঢাকায়। আয়েশা কি খুঁজে পেল তার হারিয়ে যাওয়া স্বামীকে?...</t>
-  </si>
-  <si>
-    <t>সারা পৃথিবীর সবচেয়ে শক্তিশালী অস্ত্রের নাম প্রচার। প্রচারের ঢক্কানিনাদে মিথ্যা বা অর্ধসত্যও হয়ে যায় চরম ও পরম সত্য। নাৎসি গোয়েবলসের প্রচার প্রথম স্তম্ভিত করে দেয় দুনিয়াকে। আজও এ অবস্থার কিছুমাত্র পরিবর্তন হয়নি, বরং উত্তরোত্তর বেড়েছে। প্রচারের হাতিয়ার হিসেবে তথ্য ও তত্ত্বকে মিলিয়ে মিশিয়ে অর্ধসত্যকে আমরা গিলছি, বিশ্বাস করছি। অতীত ও বর্তমান নিয়ে নানা মিথ প্রচলিত। পুরাণ এবং ইতিহাস ঘিরেও আছে অনেক মিথ। সেইসব প্রচলিত পৌরাণিক মিথকে বলা হচ্ছে ইতিহাস। সাধারণ মানুষও তা বিশ্বাস করে চলেছেন। এইসব মিথ ও মিথ্যার কিছু অংশ নিয়েই আলোচনা করেছেন বিশিষ্ট প্রাবন্ধিক ইমানুল হক, যেসব লেখার মধ্য দিয়ে তিনি শাণিত যুক্তি, সমাজবীক্ষা ও অন্তর্দৃষ্টিতে ছিন্ন করেছেন কুয়াশার অস্পষ্ট যবনিকা, তুলে ধরেছেন প্রকৃত সত্য।...</t>
-  </si>
-  <si>
-    <t>টাটা স্টোরিস হল টাটা গ্রুপের সেইসব ব্যক্তি, ঘটনা এবং স্থানের না-বলা গল্পের একটি সংগ্রহ, যা আমাদের ভারতকে আধুনিকতার পথে উন্নীত করেছে।</t>
-  </si>
-  <si>
-    <t>১৯৬৪। হজরতবালে চুরি হয়ে গেল বিশ্বনবীর পবিত্র চুল। পরে ফেরত এলেও ততদিনে যা ক্ষতি হওয়ার হয়ে গেছে! পূর্ব পাকিস্তানে ফের জ্বলে উঠেছে ভয়াবহ দাঙ্গার আগুন। পশ্চিমের সেনা-পুলিশ, রাজাকারদের চোখে লালসার দৃষ্টি...মাওলানগুলারে মেরে তাড়াও...ওদের মেয়েদের ইজ্জত লোটো...! আর থাকা গেল না...যুগীগঞ্জের সুধাময়ীর পরিবার বেরিয়ে পড়তে বাধ্য হল সব ছেড়ে। তারপর?...আবার ইন্ডিয়া বর্ডারে মানুষের স্রোত, উদ্বাস্তু মানুষেরা দলে দলে আসছে। সুধাময়ী, প্রভাস ও তার বন্ধুর পরিবারের ঠাঁই হল পরিত্যক্ত কুপার্স ক্যাম্পে। তারপর...? সেখানেও কি পাকাপাকি থাকা গেল?...দীর্ঘ সময় জুড়ে কাহিনি এগিয়ে চলে... নেহেরুর মৃত্যু, পরপর দু-দুটো ভারত-পাকিস্তান যুদ্ধ, একাত্তরে বাংলাদেশ রাষ্ট্রের অভ্যুদয়... আবার নতুন বসতি, নতুন স্বপ্ন, নতুন জীবন...সবহারা বাঙালিদের নতুন ইতিহাস...। সুবিস্তীর্ণ সময়ের ক্যানভাস জুড়ে ছড়িয়ে আছে এই গবেষণালব্ধ উপন্যাস, বাঙালির যে অপরাজেয় জীবনের কথা আজ পর্যন্ত লেখা হয়নি।...</t>
-  </si>
-  <si>
-    <t>বোধিসত্ত্ব মজুমদার ওরফে বুধোদা অ্যান্টিক কালেকটর নন, তিনি একজন অ্যান্টিক-হান্টার। প্রয়োজন পড়লে বাঘের গুহা থেকেও তিনি অ্যান্টিক তুলে আনতে পারেন। এই সংকলনে রইল সেরকমই তিনটি দুর্ধর্ষ অ্যাডভেঞ্চারের কাহিনি। কী সেই দুর্মূল্য বস্তু যার খোঁজে মুম্বইয়ের মাফিয়ারা বারবার হানা দেয় কলকাতার বন্দর এলাকার এক পুরোনো গির্জায়? আজাদ হিন্দ ফৌজের হয়ে লড়াই করতে গিয়ে মৃত্যু হয়েছিল যে বীর সৈনিকের, কোথায় হারিয়ে গেল নেতাজীর নিজের হাতে তাঁকে পরিয়ে দেওয়া শের-ই-জঙ্গ মেডেল? কলকাতার এক সাদামাটা বাড়ির ভেতরে নাকি রয়ে গেছে গুপ্তধন আর তার সঙ্গে জড়িয়ে আছে চারশো বছরের পুরোনো এক চিড়িয়াখানার ইতিহাস। বুধোদা কি ধাঁধার রহস্য ভেদ করে সেই গুপ্তধন খুঁজে পেল?</t>
-  </si>
-  <si>
-    <t>‘চিত্রনাট্য লেখা, ক্যামেরায় চোখ রাখা, এডিটিং, লেখালেখি, লিমেরিক তৈরি, সঙ্গীত পরিচালনা করা, ডিজাইনিং, স্কেচ করা, নতুন টাইপফেস তৈরি করা, এবং সবশেষে চলচ্চিত্র পরিচালনা করা―এক কথায় ওয়ান ম্যান আর্মি ছিলেন মানিকদা।’ এই বই সত্যজিতের স্নেহের মানুষ তথা সিনেমার নায়ক বরুণ চন্দ-র অন্তরঙ্গ অভিজ্ঞতায় উজ্জ্বল এমন এক আশ্চর্য দলিল, যা সত্যজিৎ রায়ের জীবন ও কর্মকাণ্ডের ওপর এক নতুন আলো ফেলবে। আমরা নিশ্চিত, দুষ্প্রাপ্য ছবিতে সমৃদ্ধ এই বই সত্যজিৎপ্রেমীদের কাছে এক অমূল্য সংগ্রহ হয়ে থাকবে।</t>
-  </si>
-  <si>
-    <t>তারপর?... দীর্ঘ এই লেখা কি ফিকশন, না নন-ফিকশন?... সময়নদীর দুই পাড় ধরে এই অভিযাত্রা যেমন রোমাঞ্চকর, তেমনই পাঠককে করে স্তব্ধ, অভিভূত। শুরু করলে ছুটিয়ে নিয়ে চলে।</t>
-  </si>
-  <si>
-    <t>প্রবাদপ্রতিম সাহিত্যিক চলে গেলেও তাঁর সৃষ্টির মধ্য দিয়েই তিনি থেকে যান চিরকাল। তারই নজির এই বই। সমরেশ মজুমদারের দীর্ঘ সাহিত্যজীবনে থেকে গিয়েছিল অগ্রন্থিত বেশ কিছু লেখা। সেই সব লেখা থেকে ২টি উপন্যাস, ১৯টি গল্প, ১টি নামহীন চিত্রনাট্য, ৩টি প্রবন্ধ, ৫টি স্মৃতিকথা, ৩টি সাহিত্য ও সাহিত্যিক―একমলাটে প্রকাশিত হল।</t>
-  </si>
-  <si>
-    <t>রামমোহন রায়। সেই রাজ্যহীন রাজা, বাঙালির জীবনকে যে মহাপুরুষ সম্পূর্ণ বদলে দিয়েছিলেন। একথা বলতেই হয়, তাঁর চেয়ে বেশি দিক থেকে এই জাতিকে আর কেউ প্রভাবিত করেননি। কিন্তু কেমন ছিল সেই মানুষটির ব্যক্তিজীবন? ঠিক কোন পথে প্রথমে রাধানগর গ্রাম থেকে পাটনা, তারপর কাশী পেরিয়ে তিব্বত কিংবা কলকাতা থেকে সুদূর লন্ডনে পাড়ি দিলেন তিনি? গোঁড়া বৈষ্ণব পরিবারের সন্তান কোন জাদুমন্ত্রে একদিন হয়ে উঠলেন যুগান্তরের প্রথম যাত্রী? প্রাণহীন গবেষণা নয়, নিছক সাল-তারিখ নয়, এই প্রথম আলোকপাত করা হল রামমোহন রায়ের প্রতিজ্ঞাবদ্ধ অথচ দ্বিধান্বিত, উদ্ভাসিত অথচ বিষণ্ণ মুখের উপর। গবেষণাগ্রন্থ নয়, এই বই মানুষ রামমোহনের সন্ধানে যাত্রা করা এক উপন্যাস।</t>
-  </si>
-  <si>
-    <t>মৃত্যু বড় হিমশীতল। খাদের অতল থেকে বরফের চাদর সরিয়ে কেউ কি ফিরে আসে ভালোবাসার টানে?...সমুদ্রতীরে নিরালা অতিথি নিবাসে ভনভন করে ঘুরে বেড়ায় মাছির দল। মাছিরা নাকি বহু দূর থেকে টের পায় শবদেহের উপস্থিতি, তার গন্ধ!...চন্দ্রালোকিত রাত্রে অরণ্যের নিস্তব্ধতা ভঙ্গ করে ভেসে আসে তক্ষকের ডাক। সে ডাক বয়ে আনে কীসের ইঙ্গিত?...মোম জ্যোৎস্নায় পাহাড় থেকে নেমে আসা হাতির দল অরণ্যের জলাশয়ে জলকেলি করে। তাদের যাওয়া আসার খবর রাখে শুধু এক নারী। সে কেন থাকে এই বনভূমিতে?...কাঠের গায়ে শিল্পীর হাতের স্পর্শে ধীরে ধীরে রূপ নেয় এক নগ্ন নারী মূর্তি।... নিষ্প্রাণ কাঠের মূর্তির জীবন্ত হয়ে ওঠা কি সম্ভব? ...প্রাপ্তমনস্ক পাঠকদের জন্য এক মলাটে পাঁচটি অলৌকিক-অন্ধকার কাহিনি।</t>
-  </si>
-  <si>
-    <t>ভাড়াবাড়ির আলোর এক ধরনের মালিন্য আছে। সে যেন পুরোপুরি জ্বলে উঠতে চায় না। যেন আত্মবিশ্বাসের অভাব আছে তার গায়ে, যেন আছে জোর গলায় কথা বলার সাহসের খামতি। মানুষের জীবনেও কি তাই নেই? এই আলোছায়া, লুকোচুরি যেন জন্ম-মৃত্যুর ব্যালান্স শিট।সময় বয়ে যাচ্ছে অনন্ত জলরাশির বুকে! পুষ্করের জীবনস্রোত বইছে কোন ধারায়? দেওয়ালে পিঠ ঠেকে যাওয়া এক প্রেমিক তার প্রেমিকাকে জানিয়ে দিচ্ছে এ দেখাই শেষ দেখা।ভালোবাসার এই এলোমেলোমির মাঝেও সর্বহারা এক দম্পতি আঁকড়ে রেখেছে সংসার। এক কবি শিখে নিচ্ছে আজীবনের কবিতারচনা। একদল তরুণ-তরুণী জীবনের অন্যতম পর্যায়ে এসে চিনে নিচ্ছে নিজেদের। জল থইথই কলেজ স্ট্রিট মুখ বাড়িয়ে আছে নতুন মুদ্রণ পাবার আশায়। তারা কি পারবে ভালোবাসায় ভরিয়ে দিয়ে সে কান্না লুকোতে?শ্রীজাতর কলমে এক জাদুবাস্তব প্রেম, বন্ধুত্বের উপন্যাস। একবার শুরু করলে শেষ না করে উপায় নেই।</t>
-  </si>
-  <si>
-    <t>গভীর রাতের নির্জন কলকাতার বুক চিরে ছুটে যায় একটা লাল স্কুটি। জনহীন হাতিবাগানের মোড়ে নাচতে থাকে দুই অবিকল একইরকম দেখতে কিশোরী। অনেক দূরের গ্রামে ভুলে যাওয়া কোনও উৎসবের রাতে খুন হয়ে যায় আরেক যুবতী। বেচারাম কলকাতার পরিচ্ছন্ন মুখে কারা যেন গভীর রাতে এঁকে দিয়ে যায় ব্যঙ্গচিত্র। মদের গন্ধ মাখা শিরায় ব্লেড চালানোর আগে মেয়েটিকে কানে কানে কেউ বলে যায়—হেথায় তুকে মানাইসে নাই রে... আর এই সবকিছুর মাঝে এক জরাজীর্ণ শহরের রাস্তায় সাদা ফুল হাতে একা দাঁড়িয়ে থাকে নামগোত্রহীন এক কাকতাড়ুয়া। সায়ক আমানের রোম্যান্টিক ফ্যান্টাসি উপন্যাস―কাকতাড়ুয়া।</t>
-  </si>
-  <si>
-    <t>পঞ্চদশ শতাব্দীতে ইতালির দিগন্তে যে নবজাগরণের সূর্যোদয় হয় তার আলো ক্রমে পৃথিবী জুড়ে ছড়িয়ে পড়ে। রেনেসাঁসের প্রভাবে যেন কয়েক শতকের মধ্যে কয়েক হাজার বছর এগিয়ে যায় দর্শন, সাহিত্য, শিল্পের বোধ। কিন্তু ঠিক কেমন ছিল সেই আলো ঝলমলে সময়টা? কেবল কি আলো? নাকি প্রদীপের নীচে কিছুটা অনুচ্চারিত অন্ধকারও জমাট বেঁধে ছিল? দুই আশ্চর্য প্রতিভাশালী শিল্পী এবং এক অতি সাধারণ নারীর চোখ দিয়ে লিও-লিসা-মিকেল খুঁজতে চেয়েছে সেই সময়কে।</t>
-  </si>
-  <si>
-    <t>মহারাজাধিরাজ সমুদ্রগুপ্তের পর গুপ্তসাম্রাজ্যের শাসনভারের দায়িত্ব অর্পণ করা হবে তাঁর সুযোগ্য মধ্যমপুত্র কুমার চন্দ্রগুপ্তকে, এমনই ঠিক ছিল।চন্দ্রগুপ্ত তখন মালবদেশে, কর্তব্য পালনে ব্যাপৃত। প্রয়াত হলেন সমুদ্রগুপ্ত। মাথা তুলে দাঁড়াল রাজপ্রাসাদের অভ্যন্তরীণ রাজনীতি আর ষড়যন্ত্র। গুপ্তসাম্রাজ্যেরই এক বিশ্বাসঘাতক রাজপুরুষের হাত ধরে শকাধিপতি রুদ্রসিংহ ভয়ংকর নৃশংসতার জাল বুনতে শুরু করলেন।সিংহাসনে বসলেন শারীরিকভাবে অক্ষম, মদ্যপ জ্যেষ্ঠপুত্র রামগুপ্ত। গুপ্তসাম্রাজ্যের মহাদেবী হয়ে এলেন মালবরাজকুমারী ধ্রুবা। ধ্রুবা চন্দ্রগুপ্তের প্রেয়সী!...শকরাজ রুদ্রসিংহ। তাঁর লোলুপ দৃষ্টি অসামান্যা সুন্দরী ধ্রুবার দিকে।... ষড়যন্ত্রকারীদের ফাঁদে পা দিলেন রামগুপ্ত। সপরিবার অবরুদ্ধ হলেন পার্বত্য দুর্গ অঞ্চলে। রুদ্রসিংহর একটিই শর্ত, রানি ধ্রুবাকে তাঁর চাইই চাই। কী ঘটল তারপর...? ধ্রুবা কি নারীত্বের চরম অবমাননা থেকে নিজেকে রক্ষা করতে পারলেন? চন্দ্রগুপ্ত কি তাঁর রাজ্য এবং রাজলক্ষ্মীকে বাহুবলে পুনরুদ্ধার করতে সফল হলেন?ইতিহাস সুরভিত ‘মহাদেবী’ এক ভাগ্যবিড়ম্বিতা নারীর কাহিনি শুধু নয়...সুগন্ধি প্রেম, ক্রুরতা, আত্মত্যাগ এবং দুর্জয় বীরত্বের মহৎ উপন্যাস।</t>
-  </si>
-  <si>
-    <t>কীভাবে? জানতে গেলে পড়তে হবে শ্বাসরোধী দশটি গল্প।</t>
-  </si>
-  <si>
-    <t>‘শীর্ষেন্দুর দশে দশ’ বইয়ে রয়েছে ১২টি গল্প, ১টি রবীন্দ্র প্রসঙ্গ, ২টি সত্যজিৎ প্রসঙ্গ, ১টি লতা প্রসঙ্গ, ৫টি স্মরণ, ৬টি স্মৃতি, ১টি দুর্গোৎসব, ৬টি দৃষ্টিকোণ, ১টি আধ্যাত্মিক রচনা এবং, ২টি কবিতা।সব মিলিয়ে দশরকম আনন্দ-আয়োজন।</t>
-  </si>
-  <si>
-    <t>সঞ্জীব চট্টোপাধ্যায়</t>
-  </si>
-  <si>
-    <t>জগুমামা টুকলু ছাড়াও আছেন উদ্ভট চরিত্র অনন্ত সরখেল এবং সোমলতা। কাহিনীগুলো ছড়িয়ে আছে চিলাপাতা, রাশিয়া, কক্সবাজার, কুর্গ থেকে লাস ভেগাস।</t>
-  </si>
-  <si>
-    <t>চোখ আমাদের জীবনে বড্ড দামি। প্রতিদিনের ব্যস্ততা এবং অবহেলায় আমাদের চোখের যত্ন নেওয়া হয়ে ওঠে না। যার ফলে বেশির ভাগ ক্ষেত্রে স্তিমিত হয় দৃষ্টিশক্তি, এমনকী অনেক সময় নেমে আসে অন্ধত্বও।অথচ খুব সাধারণ কয়েকটি নিয়ম পালন করলেই আমরা চোখের স্বাস্থ্য ভালো রাখতে পারি। কীভাবে আমরা যত্ন নেব চোখের? ছানির প্রতিকারই বা কী?চোখের গঠন, রোগ ও তার চিকিৎসা সংক্রান্ত এই বই বহুদিনের এক সামাজিক চাহিদা পূর্ণ করবে বলে আমাদের বিশ্বাস।</t>
-  </si>
-  <si>
-    <t>১৭৫৭ সালের ২৩ জুন। পলাশির যুদ্ধে পরাজিত হয়ে মুর্শিদাবাদ ছেড়ে পালিয়ে গেলেন নবাব সিরাজদ্দৌলা। পরে গ্রেফতার হলেন। জাফরাগঞ্জ প্যালেসের কয়েদখানায় মহম্মদী বেগের হাতে তাঁর মৃত্যু হল। মসনদে বসলেন মিরজাফর। কিন্তু তারপর? কী হল ষড়যন্ত্রীদের পরিণতি? রবার্ট ক্লাইভ বুঝলেন শুধু সুবে বাংলা নয়, তামাম হিন্দুস্তানের শাসনক্ষমতাও দখল করে নেওয়া অতি সহজ। তবে এজন্য চাই একদল সুশিক্ষিত ইউরোপীয় সেনা ও রাজার অনুমোদন। এই পরিকল্পনা চরিতার্থ করতে ১৭৬০ সালে তিনি পাড়ি দিলেন ইংল্যান্ডে। ফোর্ট উইলিয়ামের গভর্নর হলেন হেনরি ভ্যানসিটার্ট। ১৭৫৭ থেকে ১৭৬০! ইংরেজদের দাপটে হাঁসফাঁস করতে থাকা মিরজাফর হতাশায় নিমজ্জিত। জগৎশেঠ শাসনযন্ত্রে গুরুত্বহীন।... উমিচাঁদ উন্মাদ।...মিরনের রোষ থেকে বাঁচতে রায়দুর্লভ পালিয়ে গেলেন কলকাতায়।... নিজামতের ছন্নছাড়া শাসনযন্ত্র ধীরে ধীরে গ্রাস করতে লাগল ধূর্ত ইংরেজ বণিক।... ইতিহাসের যুগসন্ধিক্ষণের এক অনন্য দলিল এই ঐতিহাসিক উপন্যাস। বুনোটে, বিন্যাসে রোমাঞ্চকর।</t>
-  </si>
-  <si>
-    <t>বিভূতিভূষণ বন্দ্যোপাধ্যায়, বাংলা সাহিত্যের অন্যতম শ্রেষ্ঠ কথাসাহিত্যিক। বাজারে তাঁর একাধিক গল্পসমগ্র প্রকাশিত। তারপরেও আরেকটি কেন? এই গ্রন্থ পার্থজিৎ গঙ্গোপাধ্যায়ের দীর্ঘদিনের গবেষণাপ্রসূত। দুটি খণ্ডে সংকলিত হয়েছে একাধিক অগ্রন্থিত লেখা, প্রথম প্রকাশিত গল্পগ্রন্থগুলির দুষ্প্রাপ্য প্রচ্ছদ ও অন্যান্য ছবি, দীর্ঘ পরিশিষ্ট, বিভূতিভূষণের গল্পগ্রন্থপঞ্জি, বিভূতিভূষণের জীবনপঞ্জি এবং সর্বোপরি সম্পাদকের দীর্ঘ ভূমিকা। দুটি খণ্ডের এই গল্পসমগ্রে প্রতিটি গল্পগ্রন্থ পৃথকভাবে পরিবেশিত হয়েছে। রয়েছে— মেঘমল্লার, মৌরীফুল, যাত্রাবদল, জন্ম ও মৃত্যু, কিন্নর দল, বেণীগীর ফুলবাড়ী, নবাগত, তালনবমী, উপল খণ্ড, বিধু মাস্টার, ক্ষণ ভঙ্গুর, অসাধারণ, মুখোশ ও মুখশ্রী, নীলগঞ্জের ফালমন্ সাহেব, জ্যোতিরিঙ্গন, কুশল পাহাড়ী, রূপ হলুদ, অনুসন্ধান, ছায়াছবি এবং আরো একটি।</t>
-  </si>
-  <si>
-    <t>প্লট ১। দিন প্রতিদিন দিব্যেন্দুকে রুমা পড়তে পারল না। দিব্যেন্দুর সঙ্গে সংসার করা যেন সমুদ্রের মধ্যে তাকে কেউ চুলের মুঠি ধরে জলে মাথা চুবিয়ে দিয়েছে। সে হাঁসফাঁস করছে, অথচ মুক্তির পথ নেই। প্রথম প্রেম প্রত্যুষদার নাম্বার তার কাছে আছে। প্রত্যুষদার ফোন তাকে পেতেই হবে। কিন্তু যতবার সে ফোন করে, বলে ‘ফোন সুইচড অফ’। একদিন সে ফোন বাজল। একজন ধরল। প্রত্যুষদা তো নয়... কে সে?প্লট ২। অপারেশন ট্রেইটর রাণা প্রফেশনাল কিলার। তাকে ঢাকা পাঠানো হল একজন বিশ্বাসঘাতককে নিকেশ করতে। ঢাকা পৌঁছে রাণা জড়িয়ে পড়তে লাগল একটার পর একটা ঘটনায়। শেষ অবধি রাণা কী করবে?অভীক দত্ত-র দুরন্ত কলমে আন্তর্জাতিক পটভূমিতে দুই প্লট মিলেমিশে রোমহর্ষক স্পাই থ্রিলার বিশ্বাসঘাতকের সন্ধানে।</t>
-  </si>
-  <si>
-    <t>কথা সাহিত্যিক সঞ্জীব চট্টোপাধ্যায়ের নব্বইতম জন্মদিন উপলক্ষে গ্রন্থটি প্রকাশিত। এই বইয়ে রয়েছে :১০টি গল্প, ১৮টি জীবন ও ধর্ম, ১৫টি বিচিত্রা, ২টি পার্বণ ও ৩টি স্মরণ বিষয়ক লেখা।বেশিরভাগ লেখা আজ পর্যন্ত গ্রন্থাকারে প্রকাশিত হয়নি।</t>
-  </si>
-  <si>
-    <t>ওয়ারউলফ অর্থাৎ বিশেষ বিশেষ রাতে মানুষের নেকড়ে হয়ে যাওয়ার কাহিনি নয়, আবার ব্রাম স্টোকারের অবিস্মরণীয় রক্তচোষা ‘ড্রাকুলা’ও নয়। পিশাচ কোনও মানুষ বা অপমানুষের কথা নয়, হঠাৎ-হঠাৎ স্বাভাবিক মানুষ থেকে ভয়ংকর রক্তপিপাসু পিশাচ হয়ে ওঠার হাড় হিম করা সব কাহিনি! অনীশ দেব অসামান্য দক্ষতার শীর্ষে পৌঁছে গেছেন তাঁর ’পিশাচ’ সিরিজের কাহিনিগুলিতে, যা পত্রপত্রিকায় বা বই হয়ে বেরোনোর সঙ্গে সঙ্গে তাঁর অসংখ্য গুণগ্রাহী পাঠক-পাঠিকা ঝাঁপিয়ে পড়তেন। মোট ছয়টি ‘পিশাচ’কাহিনি― আমি পিশাচ, তুমি পিশাচ, পিশাচ প্রহর ১, ২ ও ৩ এবং পিশাচের রাত একত্রিত হয়ে ‘পিশাচ সমগ্র’ এই প্রথম। এই বই সাহসী প্রাপ্তমনস্ক পাঠকের জন্য!</t>
-  </si>
-  <si>
-    <t>পৃথিবীর যে-কোনও ভাষার স্তম্ভ হল ব্যাকরণ। ব্যাকরণ আমাদের জানতেই হয়। ব্যাকরণকে সঙ্গী করেই ভাষা এগোয়। একালের মতো নতুন প্রজন্মকে শিক্ষিত করে তুলতে সেকালেও শিক্ষার অঙ্গনে বহু বিদ্বজ্জনেরা পাঠ্যবই রচনা করেছেন। শেষ পর্যন্ত সংস্কৃতাচ্ছন্ন বাংলা ব্যাকরণ কাঠিন্য সরিয়ে ফেলে সহজতার আলোয় উদ্ভাসিত হয়েছে। সহজ করে বলার ক্ষেত্রে লেখক বিভূতিভূষণ অদ্বিতীয়। জীবনভর স্কুলে পড়িয়েছেন। ছাত্রদের প্রতি দায়বদ্ধতা থেকেই শিক্ষক বিভূতিভূষণ শিক্ষার্থীদের জন্য এই অভিনব বাঙলা ব্যাকরণ রচনা করেছিলেন। ‘অভিনব বাঙলা ব্যাকরণ’ প্রকাশিত হয় ১৯৪০-এ। পাঠ্যবইয়ের ভাষার আড়ষ্টতা এ বইতে নেই। বইটি ছাত্রমহলে সেসময় যথেষ্ট সমাদৃতও হয়েছিল। কিন্তু সময়ের দাবি মেনে ‘অভিনব বাঙলা ব্যাকরণ’-এর প্রকাশনাও বন্ধ হয়েছে। তবে বিভূতিভূষণের মতো মহৎ স্রষ্টার কোনো সৃষ্টিকর্মই হারিয়ে যেতে পারে না। তাই আমাদের বিশ্বাস, নতুন রূপে প্রকাশিত বইটি হাতে পেয়ে বিভূতি-অনুরাগী মাত্রই পুলকিত শুধু নয়, রোমাঞ্চিতও হবেন।</t>
-  </si>
-  <si>
-    <t>বাঙালিয়ানার উজ্জ্বল ব্যক্তিত্ব বিমল চট্টোপাধ্যায়ের বর্ণময় জীবনের মধ্যে লুকিয়ে আছে বাঙালির শতাব্দীপ্রাচীন সংস্কৃতি ও ঐতিহ্য । তারই এক ঝলক ' সকলই বিমল ' সংকলন গ্রন্থ।</t>
-  </si>
-  <si>
-    <t>পরিবারের সকলকে নিয়ে সব ক’জন বাহন সমেত মা আসেন আমাদের অঙ্গনে৷ আমন্ত্রণ থেকে নিরঞ্জন নানা আয়োজনে সমর্পণে পূর্ণ হয় মাতৃপূজা। বাইরে কত বরণ পূজন বাদ্যি বাদন। আর অন্তরে ক্ষেপাতে ক্ষেপীতে মিলে মিশে সে যে কী ধুম লাগে, সে খবর রাখেন সাধুজনে। সত্যজ্ঞানানন্দময়ী মা সৃষ্টির সর্বত্র কত রূপে কত নামে ছড়িয়ে আছেন, জড়িয়ে আছেন আমাদেরই ভিতরে বাইরে—সেই সংবাদ ঋষি মুনির দুয়ারে দুয়ারে মাধুকরী করে লেখক এখানে মায়ের পূজার প্রয়াসী হয়েছেন। বিকশিত হয়েছে দুর্গার অরূপ স্বরূপ বিশ্বরূপ। আবার পুজোর সঙ্গে অন্তরঙ্গ পরিচয়ও হয়েছে। প্রেম মুদিত মানসে উপস্থাপিত হয়েছে এই মাতৃবন্দনা।</t>
-  </si>
-  <si>
-    <t>ভালোবেসেছিল তারা। তবুও রুমি কখনো রাতুলের মতো সাধারণ মাপের শিল্পীর সঙ্গে ভবিষ্যতের স্বপ্ন দেখেনি। শুধুই কি উচ্চাকাঙ্ক্ষা, নাকি রুমির জীবনে আছে কোনো গূঢ় সত্য? বিয়ে, বিচ্ছেদ, অন্য পুরুষের হাতছানি! তবুও কেন আজও রাতুলের চওড়া বুকে মাখামাখি সেই মাটির গন্ধ ভুলতে পারে না রুমি? লেখকের কথায়, ‘সংসারে বহু মানুষ পাশাপাশি বাস করে। তারা কাছে আসে, দূরে সরে যায়। উপন্যাস লেখার সময়েও সম্পর্কের এই ভাঙাগড়া, হৃদয়সংঘাতের অনুরণনের এমন অনুচ্চকিত কিছু সুখ-দুঃখের কথাই মনে পড়ে আমার। রাজনীতি, রাষ্ট্রবিপ্লব কিংবা দুর্নীতির মতন জ্বলন্ত সমস্যা নয় তারা। তবু সাধারণ মানুষের জীবন বদলে দেয় এইসব সম্পর্কের টানাপোড়েন।’ ‘তবুও জীবন জ্বলে' তেমনই কিছু সমকালীন এবং সাধারণ মানব-মানবীকে ঘিরে গড়ে ওঠা কাহিনি, যেখানে লেখকের দুরন্ত মুনশিয়ানায় বিধৃত হয়েছে প্রেম-অপ্রেম, আশা-আকাঙ্ক্ষা, হার এবং জয়। সবমিলিয়ে গড়ে উঠেছে এক আটপৌরে অথচ অনন্য উপন্যাস।</t>
-  </si>
-  <si>
-    <t>আমাদের প্রাণের শহর কলকাতা। প্রতিনিয়ত এই শহরটার নানা দিক উদ্ভাসিত হচ্ছে নতুন নতুন লেখায়, গবেষণায়। কিন্তু এই লেখাগুলো লিখতে গিয়ে যে আকরগ্রন্থের সহায়তা আমাদের নিতে হয় তার মধ্যে রায় বাহাদুর প্রমথনাথ মল্লিকের লেখা ‘কলিকাতার কথা বইটি অন্যতম। এই বইটিতেই প্রথম লিপিবদ্ধ হয় সাবেক কলকাতার পূর্ণাঙ্গ ইতিহাস। স্বয়ং রবীন্দ্রনাথ এ বইয়ের প্রশংসা করে লেখেন—“ ‘কলিকাতার কথা’ পড়ে বিশেষ আনন্দ পেয়েছি। এই বইখানির মধ্যে কোম্পানীর আমলের বাংলার ইতিহাস বিবৃত হয়েছে—পড়তে উৎসুক বোধ হয়। এই বইখানির মধ্যে জ্ঞাতব্য বিষয় অনেক আছে।”</t>
-  </si>
-  <si>
-    <t>অভিজ্ঞান লাহিড়ী৷ হাওড়া জেলার বাসিন্দা৷ বাবা বামপন্থী রাজনীতি করেন৷বৃন্দা ব্যানার্জি৷ বাবা স্যামি ব্যানার্জি শল্য চিকিৎসক৷ মা মন্দিরা অতীতে বাংলা সিনেমার নায়িকাছিলেন৷চন্দন ভৌমিক৷ পূর্ব মেদিনীপুরের ছেলে৷ বাবা পবন ভৌমিক হাওড়া কোর্টে চাকরি করেন৷দময়ন্তী সেনগুপ্ত আর্চার৷ জন্ম ইংল্যান্ডে, বড় হওয়া দিল্লিতে৷ বাবা ড্যানিয়েল আর্চার খ্যাতনামা চিত্রশিল্পী৷মা শক্তিরূপা সেনগুপ্ত নামকরা সাংবাদিক৷অভিজ্ঞান, বৃন্দা, চন্দন, দময়ন্তী৷ সমাজের বিভিন্ন বৃত্ত থেকে আসা চারজন৷ এরা সবাই ডাক্তারি পড়তেঢুকল ইন্ডিয়ান মেডিক্যাল কলেজে৷ ভূমি অধিগ্রহণ নিয়ে তখন উত্তাল বঙ্গ রাজনীতি৷চিকিৎসা বিজ্ঞানের ছাত্ররা সমাজের বাইরে নয়৷ তারাও জড়িয়ে পড়ছে এই জটিল সামাজিক-রাজনৈতিক-অর্থনৈতিক আবর্তে৷ পড়াশুনো আর প্রেমের সঙ্গে যুক্ত হয়ে যাচ্ছে ছাত্র রাজনীতি৷ বন্ধুত্ব ও শত্রুতা, প্রেমও বিরহ, ভালবাসা ও ঘৃণা, সাম্যবাদ ও সুবিধাবাদ, বিবাহ ও পরকীয়া, যৌনতা ও হিংস্রতার বিশালক্যানভাসে আঁকা এই উপন্যাস৷</t>
-  </si>
-  <si>
-    <t>চিলাপাতার গভীর জঙ্গল, নিকষ অন্ধকার রাত৷ জগুমামার সঙ্গী পট্টনায়ক, আর তরুণী তিতির রায় বর্মন, যারহারিয়ে যাওয়া বিজ্ঞানী বাবাকে খুঁজতে জগুমামা উত্তরবঙ্গের ডুয়ার্সে হাজির হয়েছেন৷ আচমকা বনের ভিতর থেকেযেন ভেসে এল তিতিরের বাবার ডাক৷ মেয়ে পাগলের মতো ছুটে গিয়ে ঢুকে পড়ল বনের গভীরে৷ জগুমামাও ছুটেগেলেন তার পিছনে৷ আচমকা হুমড়ি খেয়ে পড়লেন হাড়গোড়ের ঢিবিতে৷ হঠাৎ কোত্থেকে ভেসে এল মিষ্টি গন্ধ৷...একটালেপার্ড, না বনবেড়াল? ওকে কারা ঘিরে ধরছে? অদ্ভুতদর্শন সব ছায়ামূর্তি, পেঙ্গুইনের মতো দুলছে! জন্তুটার আর্তনাদক্ষীণ হয়ে আসে...ওই ছায়া ছায়া মূর্তিরা এগিয়ে আসছে মামার দিকে!...পটভূমি রাশিয়া৷...সত্যপ্রিয় স্যরের মেয়ে দীপালি রাশিয়ায় থাকে৷ তার ডাকে জগুমামা সদলবলে রাশিয়ায়৷...দীপালিরশ্বশুর ইগর নিকিতিনের পোষা কুকুর হঠাৎ হিংস্র হয়ে ক্ষতবিক্ষত করে দিয়েছে মনিবকে...পাগল হয়ে গেছে কুকুর, মানুষদুজনেই...কুকুরটা মারা গেল৷ তার গলার ভিতর থেকে বের হল...এক জ্যান্ত পাথর!...কিন্তু রহস্য কি শুধু এটাই? তাহলেদীপালির বর ফিওডর কেন গোপনে এল হায়দ্রাবাদে? দেখা করল নিজামের বংশধরদের সঙ্গে? কী যোগসূত্র রাশিয়ারনিকিতিন ফ্যামিলির সঙ্গে নিজাম রাজপরিবারের? সেন্ট পিটারহফের প্রাসাদ উদ্যানে ভারতীয় যোদ্ধার মূর্তিটা কার?...একমলাটে দু-দুটো জগুমামা-টুকলুর ঘনঘোর রহস্য কাহিনী ‘জঙ্গলে ভয় ছিল’ আর ‘জ্যান্ত পাথর! তারপর’৷ সঙ্গে আছেনঅনন্ত সরখেল আর সোমলতাও৷</t>
-  </si>
-  <si>
-    <t>হারিয়ে যাওয়া ইতিহাসের নানা সময়কাল, নানা প্রেক্ষাপটে রচিত ইতিহাসসুরভিত নানা রঙের প্রেম কাহিনি একত্রিতহয়েছে এই বইয়ে৷</t>
-  </si>
-  <si>
-    <t>১৯৬৮ থেকে ২০১৯৷ ব্যতিক্রমী পত্রিকা কিশোর ভারতীর ঐতিহ্যমণ্ডিত পথ পরিক্রমা৷ সুবর্ণজয়ন্তী পেরিয়ে এসেছে২০১৭ সালে৷এই পঞ্চাশ বছরের পত্রিকার পৃষ্ঠা থেকে নির্বাচন করা হয়েছে মণিমুক্তোর মতো নানাস্বাদের গল্প৷তারই এক সোনার ফসল এই বিপুলায়তন বই৷ রহস্য-রোমাঞ্চরসের অসংখ্য গল্প থেকে বেছে নেওয়া সেরা ১০১৷এর মধ্যে সেকাল-একালের শ্রেষ্ঠ কথাশিল্পীদের গল্প যেমন আছে, আছে অধুনা বিস্মৃত বা অনামী লেখক-লেখিকার অজস্রগল্পও, যারা মানের দিক দিয়ে মোটেই বেমানান নয় বলেই আমাদের বিশ্বাস৷...‘রহস্য রোমাঞ্চ ১০১’ বাংলা কিশোর সাহিত্যে এই ধারার গল্পের এক উল্লেখযোগ্য ও আকর্ষণীয় সংকলন৷</t>
-  </si>
-  <si>
-    <t>মুহূর্তে মুহূর্তে রং পাল্টায় পৃথিবী৷ ঈশ্বর হয়ে যান শয়তান, আর শয়তান ঈশ্বরের ভূমিকায় অবতীর্ণ হন৷ মাঝখানে বয়েযায় একটা আস্ত জীবন৷ ভালোবাসা উঁকি দেয়, দুঃখ ওত পেতে থাকে৷ অনুভূতিগুলো কেবল রক্তের প্রবাহের মতো বয়েযেতে থাকে আজীবন৷ সেই আরক্তিম অনুভূতিরই কয়েকটা তোলা রইল পাঠক, আপনার জন্য৷</t>
-  </si>
-  <si>
-    <t>একমলাটে ভারতের ইতিহাসের পটভূমিতে রচিত দুই প্রেমকাহিনি। খাজুরাহ সুন্দরী ও একা কুম্ভ।</t>
-  </si>
-  <si>
-    <t>বুধোদার হাতে অনেকদিন আগের কিছু রঙিন ছবি এসে পৌঁছল৷ পাখি বা পতঙ্গর ছবি, কিন্তু জীবন্ত পাখি বা পতঙ্গেরনয় তাদের মৃত শরীরের নিখুঁত কপি৷ বুধোদা আর রুবিক পৌঁছে গেল দুর্গম আদিবাসী গ্রাম লোহুরঙে৷ গিয়ে দেখল, একডাইনির ভয়ে পুরো গ্রাম জড়োসড়ো৷ পাওয়া গেল গুণীন ভুসুক পাহানের মৃতদেহ, কাচের মতন স্বচ্ছ! তারপর?হিমালয়ের কোলে এক পরিত্যক্ত চা-বাগান---কুকড়াঝোরা৷ ওখানকার লোকে বলে, বহুদিন আগে ব্রিটিশ ম্যানেজারেরহাতে চা বাগানের শ্রমিক সুবেশ তিরকে খুন হয়েছিল৷ সুবেশই কি প্রতিশোধ নিতে পরিবর্তিত হয়েছিল নেকড়েমানুষে?...শহর কলকাতার অন্ধ গলিতে বুধোদা আর রুবিকের অভিযান৷ আদিম অরণ্যের থেকে কিছু কম ভয়ঙ্কর নয় সেইডাউন-টাউন, যেখানে বন্ধঘরের মধ্যে প্রায় ওদের চোখের সামনেই খুন হয়ে যান এক ম্যাজিশিয়ানের উত্তরাধিকারী৷কেন?...বুধোদা আর রুবিকের তিন-তিনটে দম বন্ধ করা অভিযান একমলাটে৷</t>
+    <t>236</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>Hard Cover</t>
+  </si>
+  <si>
+    <t>পৃথিবীর উষ্ণতা বাড়ছে তো আমার কী? আপনি নিশ্চয়ই এই ভ্রান্ত ধারণার শরিক নন। কারণ, পৃথিবীর উষ্ণতা বাড়তে- বাড়তে একদিন নেমে আসবে চরম সর্বনাশ। এখনই আমরা দেখতে পাচ্ছি হিমবাহ গলছে। সমুদ্রতল উঠে আসছে। পৃথিবীর উষ্ণতা একশো বছরের মধ্যেই এমন জায়গায় পৌঁছতে পারে যা গত চার লক্ষ কুড়ি হাজার বছরে হয়নি। সমুদ্রের তলায় চলে যেতে পারে অনেক নীচু দ্বীপ, তীরবর্তী অনেক শহর। তখন লক্ষ-লক্ষ মানুষ অন্য জায়গায় বাসস্থান খুঁজতে বাধ্য হবে। খরা বাড়বে। খাদ্যের অভাব, জলের অভাব আরও-আরও বেড়ে যাবে। ঝড়-বিপর্যয় হবে আরও প্রবল। শুকিয়ে যেতে পারে ভারত-চিনের বেশ কিছু প্রধান নদী। তারপর? একদিন হয়তো নেমে আসবে শেষের সেদিন। এই সর্বনাশের হাত থেকে রেহাই পেতে প্রতিটি মানুষকে সচেতন হতে হবে। সেই সচেতনতা জাগিয়ে তোলার জন্যই তথ্যসমৃদ্ধ এই বই।</t>
+  </si>
+  <si>
+    <t>অলৌকিক? না ভৌতিক? নাকি দুটোই? কালবৈশাখী বাসা বদল অনেক দূরের বন্ধু সেই রাতে কেমন আছেন গজেনবাবু? আর সময় নেই প্ল্যানচেট ঠাকুরমশাই দুই জন অসীম সব জানে ছায়াময়ী দেখা হয়ে গেল সম্পাদকের সমস্যা অবশেষে অবুদা এলেন মামাবাড়ি তাদের বাসা... মুখোমুখি এই বইয়ের ১৬ গল্পে আছে গা শিরশির ভয় আর ভয়..</t>
+  </si>
+  <si>
+    <t>প্রিয়নাথ জোয়ারদার ভূতের ভয় পেতেন ছোটবেলা থেকেই। সেই ভয় থেকে রেহাই পাওয়ার জন্য তিনি কম চেষ্টা করেননি। অবশেষে এক সন্ন্যাসীর কাছে খুঁজে পেলেন ভূতের ভয় কাটানোর মহামন্ত্র। মনপ্রাণ দিয়ে ভূতের খোঁজ করে বেড়ালেই ভূতের ভয় কেটে যাবে। সেই থেকে ভূতের খোঁজ শুরু। অশরীরী, অলৌকিক, প্রেত, পিশাচ, অপদেবতা নিয়ে চর্চা চলতে লাগল দিনের পর দিন। এরই মধ্যে কখন যেন প্রিয়নাথ নামটা বদলে হয়ে গেল ভূতনাথ। ভূতনাথের অভিজ্ঞতার ঝুলিতে অলৌকিক-অতিলৌকিক ঘটনার কোনও শেষ নেই। সেই ঝুলি থেকেই নির্বাচিত দশটি শিহরন-জাগানো কাহিনি এই বইয়ে তুলে ধরেছেন লেখক। উপন্যাসটির কথায় আসি। দেখা যায় না, শোনা যায়-নাকি শোনা যায় না, দেখা যায়? নাকি দুটোই? এইসব প্রশ্নের উত্তর খুঁজতে ভূতশিকারি প্রিয়নাথ জোয়ারদার ছুটলেন চপলকেতু গ্রামে। রহস্যের শুরু 'রেনবো' চ্যানেলের একটা টেলিসিরিয়াল নিয়ে, যার নাম 'তেনারা যেখানে আছেন'। 'রেনবো' চ্যানেলের সাংবাদিক মিংকি তেওয়ারি, তৃষ্ণা আর ক্যামেরাম্যান বিনোদকুমারের সঙ্গে ভূতনাথ চপলকেতু গ্রামের দিকে রওনা হলেন। তার পর থেকেই শুরু হল ভয়ংকর সব ব্যাপার-স্যাপার। চপলকেতু থেকে আচমকা উধাও হয়ে যাওয়া মানুষজন যাচ্ছে কোথায়? পুকুরের জল হঠাৎ-হঠাৎ দুলে ওঠে কেন? এই বইয়ে রয়েছে দশটি গল্প, একটি উপন্যাস। প্রতিটি বিষয়-বৈচিত্র্যে অনন্য, আর প্রতিটি কাহিনিতেই রয়েছে চুম্বকের তীব্র টান। এ-কথা হলফ করে বলা যায়, শরদিন্দু বন্দ্যোপাধ্যায়ের পরে এত নিষ্ঠাভরে প্রাপ্তমনস্ক ভৌতিক কাহিনি আর কেউ বোধহয় আমাদের উপহার দেননি।</t>
+  </si>
+  <si>
+    <t>দাপুটে শিল্পপতি মদন চৌধুরীর স্ত্রী রিদ্ধি হঠাৎ মারা গেলেন ! দুর্ঘটনা, আত্মহত্যা, না হত্যা?...শুভায়ু সেই সময় কোথায় ছিল?চ্যানেল ১২-য় কোন খবর ব্রেক করছে চিফ রিপোর্টার অনিরুদ্ধ? মৈত্রেয়ীর সেই খবরে কেন ক্ষিপ্ত চ্যানেল মালিকরা?জাঁদরেল রাজনীতিবিদ পিনাকী সিংহের অন্তরমহলে কোন গোপন সম্পর্কের চোরাস্রোত?...ময়ূরীকে টেলিফোনে বারবার কে খুঁজছে?...পরের পর ঘটনার ঘনঘটা ৷রাজনীতি, মিডিয়া, বাণিজ্য, নানা সম্পর্কের এক জমাট রহস্যময় উপন্যাস ৷বইয়ের শুরুতেই বিশিষ্ট সাংবাদিক-লেখকের বিধিসম্মত সতর্কীকরণ, ‘এই কাহিনি পুরোপুরি কাল্পনিক ৷ যদি কোনও চরিত্র বা কোনও ঘটনার সঙ্গে বাস্তবের কোথাও কোনও মিল কেউ খুঁজে পান, তা হলে ধরে নেবেন তা সম্পূর্ণ কাকতালীয় এবং অনিচ্ছাকৃত ৷’...অতএব?</t>
+  </si>
+  <si>
+    <t>কাইমেরা ৷ ভারতবর্ষের এলিট ইনটেলিজেন্স উইং, যেটি তৈরি হয়েছে আন্তর্জাতিক অপরাধ মোকাবিলা করার জন্যে ৷ প্রতিরক্ষামন্ত্রী রঞ্জিত গগৈ, প্রধানমন্ত্রী হরভজন সিং এবং রাষ্ট্রপতি অরুণ চ্যাটার্জি এই তিনজনের বাইরে কাইমেরার খবর জানেন আঙুলে গোনা কয়েকজন আমলা ৷ একদম নতুন এই উইং-এর টিম লিডারের নাম প্রথমা লাহিড়ী ৷ প্রতিবেশী দেশ ওয়ারিস্তানের সঙ্গে ভারতবর্ষের সম্পর্ক খুবই তিক্ত ৷ অন্য পড়শি রাষ্ট্রগুলির সঙ্গে ভারতের সম্পর্কেরওনানান রং আছে ৷ শত্রু শুধু পড়শি দেশে নেই, আছে স্বদেশেও ৷ঘরে বাইরে আক্রমণের মুখে নিজের জীবনকে বাজি রেখে প্রথমা বারবার জিতিয়ে দেয় ভারতবর্ষকে ৷ কে এই প্রথমা ? কীভাবে জেতায় ?শ্বাসরোধী দশটি থ্রিলার---শুরু করলে শেষ করতেই হবে ৷</t>
+  </si>
+  <si>
+    <t>ষষ্ঠদশ শতাব্দী। দিল্লিতে প্রবল প্রতাপশালী মোঘল সম্রাট আকবর, বাংলার সুবেদার সুলেমান কররাণী। তাঁর জামাতা ইসলাম ধর্ম গ্রহণ করে হয়ে উঠেছে এক হিংস্র দানব, দুর্বিষহ করে তুলেছে হিন্দুদের জীবন। সে 'কালাপাহাড়'। কিন্তু কেন? কোন অপমান, যন্ত্রণায় তার এই জিঘাংসা? এর কিছুদিন আগেই প্রয়াত হয়েছেন চৈতন্যদেব। তাঁর প্রবর্তিত বৈষ্ণবধারা ঘটিয়ে দিয়েছে সামাজিক বিপ্লব। এমনই এক পটভূমিতে বিধৃত উপন্যাস 'ডাকাতরাজা', যার নায়ক মল্লভূমের স্বাধীন প্রজাপালক রাজা বীরহাম্বীর। আবার রাতের আঁধারে তিনিই নাকি ডাকাতরাজা! কেন?... কালাপাহাড় বিশাল বাহিনী নিয়ে ধ্বংস করেছে উত্তরবঙ্গ ও কামরূপ, এবার তার লক্ষ্য উৎকল! সে প্রতিশোধ নেবে! তারপর?... কালাপাহাড়ের পূর্বধর্মের দুই স্ত্রী, তারা কোথায় হারিয়ে গেল?... ছুটে আসছে কালাপাহাড়ের দুর্ধর্ষ পাঠান ফৌজ... এবার লক্ষ্য বিষ্ণুপুর! তারপর?... বিস্মৃতপ্রায় মল্লরাজ্যের এক রোমাঞ্চকর আখ্যান।</t>
+  </si>
+  <si>
+    <t>পাতায় পাতায় শুধু ভয়! আর ভয়!</t>
+  </si>
+  <si>
+    <t>কিশোর সাহিত্যে মনমজানো হাসির গল্প দিন–দিন কমে যাচ্ছে ৷ এককালে যেসব প্রখ্যাত লেখক হাসির গল্পে আমাদের মাতিয়ে রাখতেন, তাঁরা আজ আর কেউই নেই ৷ আঙুলে গোনা যে ক’জন হাস্যরসের ধারাটিকে বজায় রেখেছেন, তাঁদের মধ্যে তারাপদ রায়ের নাম সামনের দিকে চলে আসে ৷ প্রায় পঞ্চাশ বছর ধরে তিনি ছোটদের জন্য কত না হাসির গল্প লিখেছেন !নয়–নয় করে ষাট–সত্তর তো হবেই বিভিন্ন পত্রপত্রিকায় সেগুলো ছড়িয়ে আছে ৷ সেসব পত্রিকার অনেকগুলির আজ আর অস্তিত্বই নেই ৷ সেই ছড়িয়ে–থাকা গল্পগুলির প্রায় সবগুলোই এই বইয়ে সংকলিত হয়েছে ৷ এই ষাটটি গল্পের প্রত্যেকটি শুধুই হাসির, শুধুই মজার ৷</t>
+  </si>
+  <si>
+    <t>সাহিত্যের যেসব ধারার গল্প উপন্যাসের জন্য পাঠক আকুল আগ্রহে বসে থাকে, থ্রিলার তাদের মধ্যে শীর্ষস্থানে। আসলে দৈনন্দিন একঘেয়ে জীবনে আমরা সকলেই 'থ্রিলড' হতে চাই। পাঠক যে থ্রিলারধর্মী কাহিনি কতখানি ভালোবাসেন, তার প্রত্যক্ষ প্রমাণ পেয়েছি থ্রিলার অমনিবাস প্রকাশের পর। সেই আগ্রহ দেখেই সুমন্ত চট্টোপাধ্যায়কে সঙ্গে নিয়ে অনীশ দেব পরিকল্পনা করেন 'দুষ্প্রাপ্য থ্রিলার অমনিবাস' প্রকাশের। সুমন্ত চট্টোপাধ্যায় নিজে একজন সংগ্রাহক ও গবেষক। অনীশ ও সুমন্তর উদ্যোগে বিস্মৃত থ্রিলার সংকলনের প্রথম খণ্ড প্রকাশিত হয় এবং পাঠককুল সাদরে সেটি গ্রহণ করেন। সুমন্ত থামতে নারাজ, তাঁর ঝুলিতে এমন আরও যথেষ্ট উঁচুমানের থ্রিলার রয়েছে। অনীশ দেবও এই কাজে সম্পূর্ণ সম্মতি দেন, তাঁর আকস্মিক প্রস্থানের আগে তিনি দেখে দেন লেখক ও লেখার তালিকা। এর ফলে 'দুষ্প্রাপ্য থ্রিলার অমনিবাস ২'-তে যেমন বাংলা সাহিত্যের দিকপাল প্রেমেন্দ্র মিত্র, নীহাররঞ্জন গুপ্ত, প্রফুল্ল রায়, অদ্রীশ বর্ধন, হুমায়ূন আহমেদ আছেন, তেমনই আছেন স্বল্পখ্যাত মনোরঞ্জন দে, এ. ডি. বাদশা, প্রবীর গোপাল রায়, আছেন বিস্মৃতপ্রায় পঞ্চানন ঘোষাল, প্রভাবতী দেবী সরস্বতী, রাজকুমার মৈত্র, হীরেন চট্টোপাধ্যায়, দুলেন্দ্র ভৌমিকও। আমরা নিশ্চিত, অসাধারণ সব লেখা ও লেখকদের উপস্থিতিতে 'দুষ্প্রাপ্য থ্রিলার অমনিবাস ২' বইটি প্রথম বইটির চেয়েও অনেকগুণ বেশি সমাদৃত হবে পাঠক মহলে।</t>
+  </si>
+  <si>
+    <t>অনিলিখা ৷ বাংলা সাহিত্যে খুব প্রিয় নাম ৷ এর কারণ, লেখকের অসামান্য কল্পনা, সারা পৃথিবীজোড়া পটভূমি এবং অনিলিখা নামের মেয়েটির বুদ্ধি, সাহস এবং হার না মানা মানসিকতা ৷ অনিলিখার মতো চরিত্র আগে আসেনি ৷ অনিলিখার আবির্ভাব গল্প দিয়ে, ১৯৯৬ সালে, কিশোর ভারতীর পাতায় ৷ অনিলিখার প্রথম উপন্যাস ২০০৭ সালে, শারদীয়া কিশোর ভারতীতে৷ সংকেত রহস্য ৷ অচিরেই কিশোর-কিশোরী শুধু নয়, বয়স্কদেরও মন জয় করে ফেলল অনিলিখা ৷ এরপর অনিলিখা বারবার এসেছে পুজোবার্ষিকীতে ৷ পাঠকদের দাবিও ক্রমে জোরালো হয়েছে, ছোট-ছোট বই নয়, এবারে অনিলিখার সমগ্র চাই ৷সেই ভালোবাসার দাবিকে সম্মান জানিয়েই এবারের উদ্যোগ ৷ এই বইয়ে স্থান পেয়েছে ৮টি উপন্যাস---সংকেত রহস্য, মাঝে মাত্র চবিবশ দিন, রহস্য যখন সংখ্যায়, রহস্য যখন মাইক্রোস্কোপিক, ‘ক’ এবং কয়েকজন, রহস্য যখন ডারউইন, রহস্যের দশ আঙুল এবং রহস্য যখন সংকেতে ৷নিশ্চিতভাবে বলা যায়, অনিলিখা রহস্য সমগ্র ১ পাঠকের কাছে সমাদৃত হবে ৷</t>
+  </si>
+  <si>
+    <t>' ভোগের মধ্যে থেকেও সংযমে চলতে পারলে সিদ্ধিলাভ সম্ভব ৷ কিছুই ত্যাগ করতে হবে না, কেবল সদ্‌ব্যবহার করতে হবে ৷  সিদ্ধিলাভের পরে কেমন জীবনধারা হওয়া উচিত, তাও এখানে তুলে ধরা হয়েছে ৷...ব্যবহারের কৌশলকেই সাধনা বলে ৷ কীভাবে নিজেকে সংসারে থেকে ব্যবহার করলে সিদ্ধ হওয়া যায় এবং কোনকিছু ত্যাগ করতে হয় না, তারই বিস্তারিত আলোচনা এই পুস্তকে আছে ৷ সংসারীদের জন্য এই আলোচনা অবশ্যই পথপ্রদর্শক হবে ৷ ভোগে থেকে ভগবান লাভের এই চিন্তাধারায় প্রাচীনত্বকে নতুন সাজে সজ্জিত করা হয়েছে এবং যুক্তি ও বৈজ্ঞানিক মানসিকতার উপর দাঁড়িয়েই এই বাস্তবমুখী পুস্তক লেখা হয়েছে ৷...'লেখকের বক্তব্য থেকেই স্পষ্ট, সংসারী অথচ জীবনযাপনে নানা কারণে বিভ্রান্ত মানুষের কাছে এই বইটি হয়ে উঠবে এক অবশ্য পঠিতব্য বই, যা তাঁকে দেবে অপার শান্তি ও সুখের চাবিকাঠি ৷</t>
+  </si>
+  <si>
+    <t>‘ ডার্ক ফ্যান্টাসি ! বর্তমানে বাংলা সাহিত্যে বহুল প্রচলিত ও জনপ্রিয় এই শব্দের সঠিক বাংলা প্রতিশব্দ আমার জানা নেই ৷ তবে আমার ভাবনায় আমি নাম দিয়েছি---অন্ধকারের গল্পগাথা ৷... মানুষের মনের গভীরে লুকিয়ে থাকা হিংসা, দ্বেষ, অমার্জিত যৌন আকাঙ্ক্ষা, প্রতিশোধস্পৃহা, অপরাধ-প্রবণতা ইত্যাদি পঙ্কিল বিষয়কে কেন্দ্র করে এইসব গল্প ৷...যাঁরা বইয়ের পাতায় ভয় পেতে ভালোবাসেন, ডুব দিতে চান হাড় হিম করা আতঙ্কের অন্ধকারে, পান করতে ভালোবাসেন ভয়াল রস, এ বইয়ের অন্ধকারের গোপন কাহিনিগুলো তাঁদের পরিতৃপ্ত করবে বলে আশা রাখি ৷ ’ - হিমাদ্রিকিশোর দাশগুপ্ত৪টি গল্প এবং ২টি উপন্যাস নিয়ে অন্ধকার আতঙ্কের বই ' সাদা বিড়াল '</t>
+  </si>
+  <si>
+    <t>তন্ময় আর জয় রাজস্থান বেড়াতে গিয়ে দেখতে পেল বিক্রমগড় কেল্লা ৷ স্থানীয় মানুষ যাকে বলে ভূতকেল্লা ৷ রহস্যময় সেই ভূতকেল্লা দেখতে গেল দুজনে মিলে ৷ পরিত্যক্ত সেই কেল্লার এক অন্ধকার পাতাল ঘরে তন্ময় আচমকাই খুঁজে পেল একটি ছোট বাক্স, তার ভিতরে একটি বীজ ৷তন্ময় ফুলের নার্সারির মালিক ৷ সে বীজটিকে নিয়ে এল বাড়িতে ৷সেই বীজ টবে রাখার কিছুদিন পরেই বীজ ফুটে বের হল অঙ্কুর ৷ সেই রাতেই তন্ময়ের কাছে হাজির হল বিজু নামের এক মালি ৷ সে সারা রাত কাজ করে আর সারাদিন অদৃশ্য থাকে ৷ বিজু আসার পর থেকেই সেই অঞ্চলে ঘটতে থাকল একের পর এক বীভৎস খুন ! এদিকে সেই বীজ থেকে একের পর এক এমনই অলৌকিক ফুল ফুটতে থাকল, যার রূপ আর গন্ধে সকলে মাতাল হয়ে যায় !কীভাবে ফোটে এই ফুল? মালি বিজুই বা কে? শেষ পর্যন্ত কী পরিণতি অপেক্ষা করছে তন্ময়ের জীবনে? এই প্রাপ্তবয়স্ক ভৌতিক কাহিনি পাঠকদের রাতের ঘুম কেড়ে নেবে ৷</t>
+  </si>
+  <si>
+    <t>রূপপুরে একইসঙ্গে দু-দুটো গোলমাল হল। যাকে বলে ডবল গোলমাল!ঘটনা দুটো সত্যি হলেও রূপকথার মতোই শুনতে লাগে। প্রথম গোলমাল ঘটেছে সকাল ছ’টা বেজে তিন মিনিট এগারো সেকেন্ডে। দ্বিতীয় ঘটনার সময়, বেলা দশটা বেজে সতেরো মিনিট। এত নির্দিষ্ট করে সময় জানাবার পিছনে কারণ আছে। সেই কারণ মজার আর রোমহর্ষক!প্রসঙ্গত বলতেই হয়, প্রচেত গুপ্ত কিছুদিন আগেই তাঁর ‘গোপন বাক্স খুলতে নেই’ বইয়ের জন্য ‘বাল-সাহিত্য অকাদেমি’ পুরস্কারে সম্মানিত হয়েছেন।</t>
+  </si>
+  <si>
+    <t>বাংলা সাহিত্যে রহস্য-রোমাঞ্চ-গোয়েন্দা উপন্যাসের ধারা যথেষ্ট প্রাচীন। উনিশ শতকের শেষ দিকে প্রিয়নাথ মুখোপাধ্যায় লিখেছিলেন ‘দারোগার দপ্তর’। সেই শুরু থেকে সময়ের পথ বেয়ে ধীরে ধীরে সাবালক হয়ে উঠেছে বাংলা রহস্য উপন্যাস। তিনটি খণ্ডে সেই ঐতিহ্যময় ধারাটিকে মলাটবন্দি করার প্রয়াসেই এই পদক্ষেপ। প্রকাশিত এই শেষ খণ্ডে রয়েছে সম্পাদকের বাছাই করা সেরা চোদ্দোটি রহস্য উপন্যাস। লিখেছেন বুদ্ধদেব গুহ, সুনীল গঙ্গোপাধ্যায়, কৃশানু বন্দ্যোপাধ্যায়, শীর্ষেন্দু মুখোপাধ্যায়, তপন বন্দ্যোপাধ্যায়-এর মতো প্রথিতযশা সাহিত্যিকরা। এবং তাদের পাশাপাশি রয়েছেন অমলেন্দু সামুই, অনিরুদ্ধ চৌধুরী, অশোক বিশ্বাস, হিমাংশু সরকার, অমিত মুখোপাধ্যায়, নীল মজুমদারের মতো কম-চেনা সাহিত্যিকবৃন্দ। রহস্য সাহিত্যের একনিষ্ঠ পাঠক ও বিশিষ্ট লেখক অনীশ দেব অনন্য নিষ্ঠা ও যত্নে সম্পাদনা করেছেন এই ক্লাসিক গ্রন্থটি।</t>
+  </si>
+  <si>
+    <t>'গোয়েন্দা পুলিশ, তদন্ত বিশ' কোনও কাল্পনিক গোয়েন্দা কাহিনির সংকলন নয়! সেইসব অসমসাহসী মানুষের কুড়িটি অভিজ্ঞতার সত্যনিষ্ঠ বিবরণ, যাঁরা জীবন বাজি রেখে অপরাধের বিরুদ্ধে লড়াই করে গেছেন এবং এখনও করে চলেছেন। ব্রিটিশ আমল থেকে বর্তমান সময় অবধি আরক্ষারক্ষীরা নিরলসভাবে যে বহুবিধ অপরাধের সঙ্গে লড়াই করে আসছেন, তার 'বিন্দুতে সিন্ধু' রূপ পাওয়া যাবে সবদিক দিয়ে স্বতন্ত্র এই সংকলনে। সেকাল থেকে একালের প্রতিনিধিত্বমূলক প্রায় সকলের লেখাই স্থান পেয়েছে।</t>
+  </si>
+  <si>
+    <t>শার্লক হোমস অনেক বেশি পরিচিত স্যার আর্থার কোনান ডয়েলের চেয়ে। অথচ ডয়েল-এর প্রথম ভালোবাসা ছিল অন্য ধারার লেখা। ইতিহাস ছাড়াও শার্লক হোমসকে সরিয়ে রেখে প্রায় ৭৬টি গল্প তিনি লিখে গেছেন, যেগুলি এককথায় অনবদ্য এবং আশ্চর্যভাবে অপরিচিত।সেইসব অসম্ভব ভালো গল্পের খনি থেকে এই বইয়ে তুলে আনা হয়েছে কুড়িটি সেরা রহস্য গল্পকে। প্রতিটি গল্পই বিষয়ের বৈচিত্র্যে, গা-ছমছম রুদ্ধশ্বাস রহস্যে টানটান, এবং সবচেয়ে বড় কথা—কোথাও অনুবাদের বিন্দুমাত্র গন্ধ নেই। মনে হয়, যেন বাংলাতেই লেখা হয়েছিল গল্পগুলি। সাবলীল সৃজনের মুন্সিয়ানার কৃতিত্ব শিশির চক্রবর্তীর।রহস্য গল্পের জাদুকর স্যার আর্থার কোনান ডয়েলের ‘নতুন বিশ রহস্য’ আদ্যোপান্ত না পড়ে ছাড়া যায় না।</t>
+  </si>
+  <si>
+    <t>তারা একে অন্যকে ভালোবেসেছিল। তারা দুই সাধারণ মানুষ-মানুষী। এক পুজোমণ্ডপের উজ্জ্বল আলোয় মানুষীটি তার উজ্জ্বলতর চোখ তুলে বলেছিল, ‘ভালোবাসি’। তারপর জীবন এসে বাঘের মতো ঝাঁপিয়ে পড়ল তাদের মাঝখানে। গড়ে তুলল দুস্তর দেওয়াল। সে দেওয়াল পেরোতে অনেক উচ্চতায় উঠতে হয়েছিল তাদের। ভালোবাসার অনন্য জাদুডানায় ভর করে দুস্তর বাধা পেরিয়ে অ্যাচিভমেন্টের সুদূর আকাশে তাদের একে অন্যের কাছে ফিরে আসবারই কাহিনি ‘ঈশ্বরপুরের প্রেমকথা’।</t>
+  </si>
+  <si>
+    <t>এইসব গদ্য-সাহিত্যের পাশাপাশি অবশ্যই সংকলিত হয়েছে নচিকেতার বাছাই করা বেশ কয়েকটি বিখ্যাত গান।</t>
+  </si>
+  <si>
+    <t>গুড়িয়া কে? কেন তার নামে অতগুলো টাকা ফিক্সড ডিপোজিট করে রেখেছিলেন অপরাজিতা?শ্রীময়ী কি খুঁজে পাবে মায়ের সেই অদৃশ্য প্রেমিককে?অমিয় নন্দী কেন থাকেন শিলং পাহাড়ের বৃদ্ধাশ্রমে? রুপোলি পর্দার তারকাদের সঙ্গে কীভাবে তাঁর এমন অন্তরঙ্গ পরিচয়? অর্ণব কি জানে সুমিতার আসল পরিচয়?ডরোথি কেন বারবার সুমিতার প্রশ্ন এড়িয়ে যায়? সম্পর্কের টানাপোড়েন, ভাঙাগড়া।তিন প্রজন্মের ওপর ক্রমশ ঘনিয়ে আসা সন্দেহ আর অবিশ্বাসের বলয় নিয়েই সামাজিক রহস্য উপন্যাস আঁধার বৃত্ত।</t>
+  </si>
+  <si>
+    <t>বয়েস মাত্র কুড়ি। অপরূপ সুন্দরী। বিউটি কনটেস্টে প্রথম হওয়া হল না বিচারকদের জালিয়াতিতে। কিন্তু একজন বিচারক সঞ্জিত ভুলতে পারে না গার্গীকে। অন্যদিকে সেই কনটেস্টে টাকার জোর খাটিয়ে যে প্রথম হয়েছিল, সেই নম্রতার স্বামী বিজিতও আটকে পড়ে গার্গীর রূপমোহে।...তারপর? একের-পর-এক অস্বাভাবিক মৃত্যু। প্রথমে সঞ্জিতের স্ত্রী, তারপর সঞ্জিত, তারপর বিজিত।...কেন, কার জন্য?...অরুণিমার অগাধ টাকা, আমেরিকা প্রবাসী। স্বামী সুব্রত সেল্‌ফ মেড ম্যান। জীবনে এল মিহির। মিহিরের সঙ্গে এক গোপন শারীরিক সম্পর্কে মেতে উঠল অরুণিমা।...মিহির ফিরে আসে ভারতে। পিছু-পিছু আসে অরুণিমাও। সে মিহিরকে ছাড়তে পারছে না। মিহির বিয়ের প্রস্তাব প্রত্যাখ্যান করে। ওই দিন দুপুরে নিজের বাড়িতে একাকিনী অরুণিমা খুন হয়।...খুনি কে?রহস্যভেদী শবর দাশগুপ্তের নাম শীর্ষেন্দু মুখোপাধ্যায়ের পাঠককূলের তেমন অজানা নয়। শুধুমাত্র অনুমান, মনস্তত্ব বিচারের উপর যুক্তিবুদ্ধিগুলিকে সাজিয়ে রহস্যকাহিনিতে শীর্ষেন্দু এনেছেন এক অভিনব স্বাদ। ‘রূপ’ ও ‘মারীচ’ দুটি ছোট উপন্যাসকে একত্রিত করে ‘রূপ-মারীচ রহস্য’ তাই হয়ে উঠেছে এক রূদ্ধশ্বাস বই।</t>
+  </si>
+  <si>
+    <t>আন্দুলের স্বার্থলোভী জমিদার মিত্তিরমশাই, কেন্দ্রীয় সরকারের উচ্চপদস্থ চাকুরে অজিত মুখার্জী, উচ্চাকাঙ্ক্ষী দ্বারকাধীশ, আমুদে বিশ্বনাথ ভট্টাচার্য, স্কুল থেকে বাড়ি না ক্লাস টেনের ছাত্রী রীনা সেন শর্মা, দেবরাজকে পছন্দ করেও তরুণকে বিয়ে করা নন্দা, পৃথিবীর এক প্রান্তের গুঞ্জনের সঙ্গে অপর প্রান্তের অরূপের প্রেম এবং ভার্চুয়াল বিয়ে, কালী নামের মেয়েটার বেঁচে থাকার জন্য মালতীতে রূপান্তর, বিয়ের তিরিশ বছর বাদে জয়দীপের জীবনে অন্য মেয়ের উপস্থিতি জানতে পারা শিল্পী, জীবনে একজন সঙ্গী থাকার খুব দরকার ভেবে চল্লিশ পেরিয়ে বিয়ে করা গীতা—এই সব চরিত্রগুলো প্রত্যেকেরই খুব পরিচিত। আমাদের চারপাশে অহরহ এদের দেখা যায়।এমনই সব ঘরোয়া চরিত্রদের নিয়ে দেবযানী বসু কুমারের নতুন বই ‘পরচর্চা পরনিন্দা'। ৩৫টি গল্প আছে বইটিতে। সত্যি ঘটনার ভিতের ওপর কল্পনার ঘর গড়েছেন দেবযানী। সহজ সুন্দর কথালাপে তরতরিয়ে এগিয়ে চলা গল্পগুলো পড়তে অবশ্যই ভালো লাগবে।</t>
+  </si>
+  <si>
+    <t>জন্ম ২২ মে ১৮৫৯। পেশায় চিকিৎসক, লেখাপড়া এডিনবার্গ বিশ্ববিদ্যালয়ে। অবিস্মরণীয় গোয়েন্দা চরিত্র শার্লক হোমস, যাঁর আবির্ভাব ১৮৮৭। হোমস ও তাঁর সহযোগী ডাঃ ওয়াটসন সারা পৃথিবীর জনপ্রিয়তম এবং অন্যতম শ্রেষ্ঠ গোয়েন্দা জুটি। শার্লক হোমস ছাড়াও তিনি অজস্র ছোটগল্প লিখেছেন। সাহিত্যের কল্পবিজ্ঞান, অলৌকিক, ভৌতিক—বিভিন্ন শাখায় ছিল তাঁর অবাধ গতায়াত। কোনান ডয়েলের আরেকটি শ্রেষ্ঠ চরিত্র, প্রোফেসর চ্যালেঞ্জার। ১৯০২ সালে তাঁকে নাইটহুড সম্মানে ভূষিত করা হয়।‘দ্য ভ্যালি অফ ফিয়ার’ (ভয়ের উপত্যকা) কোনান ডয়েলের চতুর্থ এবং শেষ হোমসীয় উপন্যাস, প্রকাশিত হয় ১৯১৫ সালে। প্রয়াণ ৭ জুলাই ১৯৩০।</t>
+  </si>
+  <si>
+    <t>‘নি রে গম পম গরে গম পম গরে সাসা...দাদা জানে কীভাবে আমায় শান্ত করতে হয়। কড়ি মধ্যম ছুঁলেই সম্মোহিত হয়ে যাই আমি। আমাকে ঠান্ডা করার ওষুধ হল গান...। দাদাকে আমার চেয়ে অনেক বেশি ভালোবাসে মা! অনেক অনেক... আমাকে বুঝতেই চায় না...বাজলো তোমার আলোর বেণু...ধূপের সুবাসের মতো মনের মধ্যেও গানটা অবিরাম ছড়িয়ে পড়তে লাগল। আমি রাগ ভৈরবী জানি না। মা দুর্গাকেও জানি না। আমি শুধু চিনি আমার মাকে। মায়ের হাসিটুকুই আমার সব।’                                                             কিশোর মন এবং তার অলিগলি ছুঁয়ে এই উপন্যাস। সময়ের কাঁটা ছুঁয়ে নিজেকে হারিয়ে ফেলে আবার ফিরে আসা। আবেগে ভাসার কাহিনি। সুরের মূর্ছনায় ভিজে যাওয়ার এক অনবদ্য সাক্ষ্য এই উপন্যাস।</t>
+  </si>
+  <si>
+    <t>ইনার ইঞ্জিনিয়ারিং হল আনন্দ এবং কল্যাণের জন্য আপনার নিজস্ব সফটওয়্যার।</t>
+  </si>
+  <si>
+    <t>রোমহর্ষক সত্য ঘটনাকালো দানোর আতঙ্ক, দুর্গম গিরি কান্তার মরু, বজ্রাহত, মৃত্যুর রং নীল, চক্রভেদ, মৃত্যু বালুকা, মাত্র ৬০ সেকেন্ডে, একজোড়া কালান্তক, সামনে শমন, মৌ-যমদূত, আত্মহত্যা করতে গিয়ে, রক্তরস, অগ্নিঝঞ্ঝা, আকাশে মৃত্যুর ঘণ্টা, ভয়াল আগন্তুক , ডেস্টিনেশন কিনল্যান্ড !শুরু করলে শেষ না করে স্বস্তি নেই।</t>
+  </si>
+  <si>
+    <t>অদ্রীশ বর্ধন। গোয়েন্দা উপন্যাস। ইন্দ্রনাথ রুদ্র। এক রোমাঞ্চকর ত্র্যহস্পর্শ। দু-মলাটে বন্দি গোয়েন্দা ইন্দ্রনাথ রুদ্রকে নিয়ে লেখা সেরা চারটি গোয়েন্দা উপন্যাস।হিরামনের হাহাকারলোহার কোটবনমানুষের হাড়কংক্রিট বুটচারটি জটিল রহস্যের সমাধান করতে বুদ্ধির জাল ফেলেছে ইন্দ্রনাথ রুদ্র। ছিপছিপে চেহারা। টানা-টানা স্বপ্নালু চোখ। দেখে মনে হয় কবি। কিন্তু আসলে সে তুখোড় গোয়েন্দা। ভাবালু দৃষ্টি তার অষ্টপ্রহরের ছদ্মবেশ।রোমহর্ষক এই চারটি গোয়েন্দা কাহিনিতে শিহরন লতায় পাতায়, উৎকণ্ঠা আনাচে কানাচে, রহস্য অলিতে গলিতে। সাহস যাদের কম, স্নায়ু যাদের দুর্বল, বিভীষিকা যাদের বুকে কাঁপুনি ধরায়—এই চারটি রহস্য-অ্যাডভেঞ্চার তাদের কাছে নিষিদ্ধ ।</t>
+  </si>
+  <si>
+    <t>ন’টি সায়েন্স ফিকশন, প্রতিটাই ম্যাজিক, পড়লে চমকে যেতে হয়৷</t>
+  </si>
+  <si>
+    <t>কে সে? কোন গোপনীয়তাকে বুকে বয়ে নিয়ে বেড়ায় অগস্ত্য? ইরতেনসেনুই বা কতটুকু চেনে নিজেকে? তাদের অভিযানে কি তারা পাবে সত্যকে খুঁজে নিতে? পারবে সর্বনাশকে আটকাতে? নাকি অসত্যের জয়ই অবশ্যম্ভাবী?ধর্ম-বিজ্ঞান, ঈশ্বর-শয়তান, বিশ্বাস-অবিশ্বাসের এই আবর্তে কি আলোর সন্ধান মিলবে আদৌ? এই উপন্যাসে এক অদৃশ্য সুতোয় বাঁধা পড়েছে দুই দেশ, ভারতবর্ষ এবং মিশর।</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,25 +1894,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1410,25 +1920,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H3" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1436,25 +1946,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1462,25 +1972,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1488,25 +1998,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1514,25 +2024,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H7" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1540,25 +2050,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1566,25 +2076,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H9" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1592,25 +2102,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>412</v>
       </c>
       <c r="G10" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1618,25 +2128,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1644,25 +2154,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G12" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1670,25 +2180,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1696,25 +2206,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H14" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1722,25 +2232,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="G15" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1748,25 +2258,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1774,25 +2284,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1800,25 +2310,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="G18" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H18" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1826,25 +2336,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="H19" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1852,25 +2362,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H20" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1878,25 +2388,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1904,25 +2414,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="G22" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1930,25 +2440,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1956,25 +2466,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1982,25 +2492,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2008,25 +2518,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H26" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2034,25 +2544,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H27" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2060,25 +2570,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>415</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2086,25 +2596,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>416</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H29" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2112,25 +2622,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="G30" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2138,25 +2648,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="G31" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2164,25 +2674,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2190,25 +2700,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H33" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2216,25 +2726,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2242,25 +2752,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>420</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H35" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2268,25 +2778,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>413</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H36" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2294,25 +2804,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H37" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2320,25 +2830,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>421</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H38" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2346,25 +2856,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2372,25 +2882,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H40" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2398,25 +2908,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H41" t="s">
-        <v>194</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2424,25 +2934,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H42" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2450,25 +2960,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="F43" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H43" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2476,25 +2986,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>349</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H44" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2502,25 +3012,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H45" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2528,25 +3038,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2554,25 +3064,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2580,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2606,25 +3116,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2632,25 +3142,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2658,25 +3168,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2684,25 +3194,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H52" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2710,25 +3220,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2736,25 +3246,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="F54" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H54" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2762,25 +3272,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2788,25 +3298,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>426</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H56" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2814,25 +3324,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H57" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2840,25 +3350,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>436</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2866,25 +3376,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>437</v>
       </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="H59" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2892,25 +3402,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>461</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2918,25 +3428,1579 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" t="s">
+        <v>319</v>
+      </c>
+      <c r="E61" t="s">
+        <v>364</v>
+      </c>
+      <c r="F61" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" t="s">
+        <v>331</v>
+      </c>
+      <c r="H61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" t="s">
+        <v>331</v>
+      </c>
+      <c r="G62" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" t="s">
+        <v>331</v>
+      </c>
+      <c r="F63" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65" t="s">
+        <v>331</v>
+      </c>
+      <c r="F65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G65" t="s">
+        <v>331</v>
+      </c>
+      <c r="H65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>331</v>
+      </c>
+      <c r="H66" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" t="s">
+        <v>305</v>
+      </c>
+      <c r="E67" t="s">
+        <v>366</v>
+      </c>
+      <c r="F67" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E68" t="s">
+        <v>367</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>331</v>
+      </c>
+      <c r="H68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" t="s">
+        <v>331</v>
+      </c>
+      <c r="G69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" t="s">
+        <v>368</v>
+      </c>
+      <c r="F70" t="s">
+        <v>442</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G71" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" t="s">
+        <v>370</v>
+      </c>
+      <c r="F72" t="s">
+        <v>408</v>
+      </c>
+      <c r="G72" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" t="s">
+        <v>371</v>
+      </c>
+      <c r="F73" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" t="s">
+        <v>372</v>
+      </c>
+      <c r="F74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" t="s">
+        <v>439</v>
+      </c>
+      <c r="G75" t="s">
+        <v>331</v>
+      </c>
+      <c r="H75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" t="s">
+        <v>323</v>
+      </c>
+      <c r="E76" t="s">
+        <v>331</v>
+      </c>
+      <c r="F76" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>323</v>
+      </c>
+      <c r="E77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F77" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+      <c r="H77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" t="s">
+        <v>446</v>
+      </c>
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>375</v>
+      </c>
+      <c r="F79" t="s">
+        <v>447</v>
+      </c>
+      <c r="G79" t="s">
+        <v>331</v>
+      </c>
+      <c r="H79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" t="s">
+        <v>296</v>
+      </c>
+      <c r="E80" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80" t="s">
+        <v>432</v>
+      </c>
+      <c r="G80" t="s">
+        <v>331</v>
+      </c>
+      <c r="H80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81" t="s">
+        <v>331</v>
+      </c>
+      <c r="H81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" t="s">
+        <v>377</v>
+      </c>
+      <c r="F82" t="s">
+        <v>429</v>
+      </c>
+      <c r="G82" t="s">
+        <v>331</v>
+      </c>
+      <c r="H82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" t="s">
+        <v>378</v>
+      </c>
+      <c r="F83" t="s">
+        <v>448</v>
+      </c>
+      <c r="G83" t="s">
+        <v>331</v>
+      </c>
+      <c r="H83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" t="s">
+        <v>291</v>
+      </c>
+      <c r="E84" t="s">
+        <v>379</v>
+      </c>
+      <c r="F84" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84" t="s">
+        <v>331</v>
+      </c>
+      <c r="H84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" t="s">
+        <v>416</v>
+      </c>
+      <c r="G85" t="s">
+        <v>331</v>
+      </c>
+      <c r="H85" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" t="s">
+        <v>321</v>
+      </c>
+      <c r="E86" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" t="s">
+        <v>331</v>
+      </c>
+      <c r="G86" t="s">
+        <v>331</v>
+      </c>
+      <c r="H86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" t="s">
+        <v>381</v>
+      </c>
+      <c r="F87" t="s">
+        <v>441</v>
+      </c>
+      <c r="G87" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" t="s">
+        <v>449</v>
+      </c>
+      <c r="G88" t="s">
+        <v>331</v>
+      </c>
+      <c r="H88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" t="s">
+        <v>324</v>
+      </c>
+      <c r="E89" t="s">
+        <v>383</v>
+      </c>
+      <c r="F89" t="s">
+        <v>450</v>
+      </c>
+      <c r="G89" t="s">
+        <v>331</v>
+      </c>
+      <c r="H89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" t="s">
+        <v>384</v>
+      </c>
+      <c r="F90" t="s">
+        <v>451</v>
+      </c>
+      <c r="G90" t="s">
+        <v>331</v>
+      </c>
+      <c r="H90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" t="s">
+        <v>310</v>
+      </c>
+      <c r="E91" t="s">
+        <v>385</v>
+      </c>
+      <c r="F91" t="s">
+        <v>420</v>
+      </c>
+      <c r="G91" t="s">
+        <v>331</v>
+      </c>
+      <c r="H91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" t="s">
+        <v>386</v>
+      </c>
+      <c r="F92" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" t="s">
+        <v>331</v>
+      </c>
+      <c r="H92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>387</v>
+      </c>
+      <c r="F93" t="s">
+        <v>408</v>
+      </c>
+      <c r="G93" t="s">
+        <v>331</v>
+      </c>
+      <c r="H93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>325</v>
+      </c>
+      <c r="E94" t="s">
+        <v>388</v>
+      </c>
+      <c r="F94" t="s">
+        <v>452</v>
+      </c>
+      <c r="G94" t="s">
+        <v>331</v>
+      </c>
+      <c r="H94" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>331</v>
+      </c>
+      <c r="F95" t="s">
+        <v>331</v>
+      </c>
+      <c r="G95" t="s">
+        <v>331</v>
+      </c>
+      <c r="H95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" t="s">
+        <v>316</v>
+      </c>
+      <c r="E96" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" t="s">
+        <v>453</v>
+      </c>
+      <c r="G96" t="s">
+        <v>331</v>
+      </c>
+      <c r="H96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" t="s">
+        <v>314</v>
+      </c>
+      <c r="E97" t="s">
+        <v>390</v>
+      </c>
+      <c r="F97" t="s">
+        <v>454</v>
+      </c>
+      <c r="G97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" t="s">
+        <v>331</v>
+      </c>
+      <c r="G98" t="s">
+        <v>331</v>
+      </c>
+      <c r="H98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" t="s">
+        <v>391</v>
+      </c>
+      <c r="F99" t="s">
+        <v>436</v>
+      </c>
+      <c r="G99" t="s">
+        <v>331</v>
+      </c>
+      <c r="H99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" t="s">
+        <v>278</v>
+      </c>
+      <c r="E100" t="s">
+        <v>392</v>
+      </c>
+      <c r="F100" t="s">
+        <v>455</v>
+      </c>
+      <c r="G100" t="s">
+        <v>331</v>
+      </c>
+      <c r="H100" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" t="s">
+        <v>264</v>
+      </c>
+      <c r="E101" t="s">
+        <v>393</v>
+      </c>
+      <c r="F101" t="s">
+        <v>428</v>
+      </c>
+      <c r="G101" t="s">
+        <v>331</v>
+      </c>
+      <c r="H101" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" t="s">
+        <v>331</v>
+      </c>
+      <c r="F102" t="s">
+        <v>331</v>
+      </c>
+      <c r="G102" t="s">
+        <v>331</v>
+      </c>
+      <c r="H102" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103" t="s">
+        <v>456</v>
+      </c>
+      <c r="G103" t="s">
+        <v>331</v>
+      </c>
+      <c r="H103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s">
+        <v>326</v>
+      </c>
+      <c r="E104" t="s">
+        <v>395</v>
+      </c>
+      <c r="F104" t="s">
+        <v>457</v>
+      </c>
+      <c r="G104" t="s">
+        <v>331</v>
+      </c>
+      <c r="H104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" t="s">
+        <v>264</v>
+      </c>
+      <c r="D105" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" t="s">
+        <v>445</v>
+      </c>
+      <c r="G105" t="s">
+        <v>331</v>
+      </c>
+      <c r="H105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" t="s">
+        <v>458</v>
+      </c>
+      <c r="G106" t="s">
+        <v>331</v>
+      </c>
+      <c r="H106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" t="s">
+        <v>285</v>
+      </c>
+      <c r="E107" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" t="s">
+        <v>410</v>
+      </c>
+      <c r="G107" t="s">
+        <v>331</v>
+      </c>
+      <c r="H107" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" t="s">
+        <v>399</v>
+      </c>
+      <c r="F108" t="s">
+        <v>413</v>
+      </c>
+      <c r="G108" t="s">
+        <v>331</v>
+      </c>
+      <c r="H108" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" t="s">
+        <v>300</v>
+      </c>
+      <c r="E109" t="s">
+        <v>400</v>
+      </c>
+      <c r="F109" t="s">
+        <v>452</v>
+      </c>
+      <c r="G109" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" t="s">
+        <v>291</v>
+      </c>
+      <c r="E110" t="s">
+        <v>401</v>
+      </c>
+      <c r="F110" t="s">
+        <v>459</v>
+      </c>
+      <c r="G110" t="s">
+        <v>331</v>
+      </c>
+      <c r="H110" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" t="s">
+        <v>331</v>
+      </c>
+      <c r="F111" t="s">
+        <v>331</v>
+      </c>
+      <c r="G111" t="s">
+        <v>331</v>
+      </c>
+      <c r="H111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
+        <v>305</v>
+      </c>
+      <c r="E112" t="s">
+        <v>402</v>
+      </c>
+      <c r="F112" t="s">
+        <v>447</v>
+      </c>
+      <c r="G112" t="s">
+        <v>331</v>
+      </c>
+      <c r="H112" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113" t="s">
+        <v>403</v>
+      </c>
+      <c r="F113" t="s">
+        <v>415</v>
+      </c>
+      <c r="G113" t="s">
+        <v>331</v>
+      </c>
+      <c r="H113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" t="s">
+        <v>404</v>
+      </c>
+      <c r="F114" t="s">
+        <v>460</v>
+      </c>
+      <c r="G114" t="s">
+        <v>331</v>
+      </c>
+      <c r="H114" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" t="s">
+        <v>331</v>
+      </c>
+      <c r="G115" t="s">
+        <v>331</v>
+      </c>
+      <c r="H115" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>288</v>
+      </c>
+      <c r="D116" t="s">
+        <v>327</v>
+      </c>
+      <c r="E116" t="s">
+        <v>405</v>
+      </c>
+      <c r="F116" t="s">
+        <v>441</v>
+      </c>
+      <c r="G116" t="s">
+        <v>331</v>
+      </c>
+      <c r="H116" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" t="s">
+        <v>296</v>
+      </c>
+      <c r="E117" t="s">
+        <v>331</v>
+      </c>
+      <c r="F117" t="s">
+        <v>331</v>
+      </c>
+      <c r="G117" t="s">
+        <v>331</v>
+      </c>
+      <c r="H117" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" t="s">
+        <v>325</v>
+      </c>
+      <c r="E118" t="s">
+        <v>331</v>
+      </c>
+      <c r="F118" t="s">
+        <v>331</v>
+      </c>
+      <c r="G118" t="s">
+        <v>331</v>
+      </c>
+      <c r="H118" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>249</v>
+      </c>
+      <c r="D119" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" t="s">
+        <v>406</v>
+      </c>
+      <c r="F119" t="s">
+        <v>456</v>
+      </c>
+      <c r="G119" t="s">
+        <v>331</v>
+      </c>
+      <c r="H119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" t="s">
+        <v>306</v>
+      </c>
+      <c r="E120" t="s">
+        <v>407</v>
+      </c>
+      <c r="F120" t="s">
+        <v>408</v>
+      </c>
+      <c r="G120" t="s">
+        <v>331</v>
+      </c>
+      <c r="H120" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" t="s">
-        <v>280</v>
-      </c>
-      <c r="G61" t="s">
-        <v>194</v>
-      </c>
-      <c r="H61" t="s">
-        <v>194</v>
+      <c r="B121" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>306</v>
+      </c>
+      <c r="E121" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" t="s">
+        <v>331</v>
+      </c>
+      <c r="G121" t="s">
+        <v>331</v>
+      </c>
+      <c r="H121" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3001,6 +5065,66 @@
     <hyperlink ref="A59" r:id="rId58"/>
     <hyperlink ref="A60" r:id="rId59"/>
     <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
